--- a/Rational_Covid_Data.xlsx
+++ b/Rational_Covid_Data.xlsx
@@ -5,26 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DATA\documents\_ID\covid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DATA\src\Github\TruthData\CovidDeaths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12C051C-C3E2-4A93-9E70-E8F88881463A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3931393D-F888-4AE8-AF1E-93C574373C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="4" xr2:uid="{28F4FA7A-80AD-43D1-99E7-705B1B15EF35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{28F4FA7A-80AD-43D1-99E7-705B1B15EF35}"/>
   </bookViews>
   <sheets>
-    <sheet name="DataAnalysis" sheetId="18" r:id="rId1"/>
-    <sheet name="Monthly_Provisional_Counts_of_D" sheetId="16" r:id="rId2"/>
-    <sheet name="2020_Census_Pop_Data" sheetId="15" r:id="rId3"/>
-    <sheet name="CDC_CovidDeaths_ByAge" sheetId="21" r:id="rId4"/>
-    <sheet name="OtherCausesOfDeath" sheetId="22" r:id="rId5"/>
+    <sheet name="DISCLAIMER" sheetId="23" r:id="rId1"/>
+    <sheet name="DataAnalysis" sheetId="18" r:id="rId2"/>
+    <sheet name="Monthly_Provisional_Counts_of_D" sheetId="16" r:id="rId3"/>
+    <sheet name="2020_Census_Pop_Data" sheetId="15" r:id="rId4"/>
+    <sheet name="CDC_CovidDeaths_ByAge" sheetId="21" r:id="rId5"/>
+    <sheet name="OtherCausesOfDeath" sheetId="22" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="AGE_POP">Table1[#All]</definedName>
     <definedName name="CausesOfDeath">Table64[]</definedName>
     <definedName name="CDC_ANUALIZATION_FACTOR">DataAnalysis!$S$3</definedName>
     <definedName name="COVID_DATA">Table4[]</definedName>
-    <definedName name="ExternalData_2" localSheetId="3" hidden="1">CDC_CovidDeaths_ByAge!$A$1:$I$9</definedName>
+    <definedName name="ExternalData_2" localSheetId="4" hidden="1">CDC_CovidDeaths_ByAge!$A$1:$I$9</definedName>
     <definedName name="POP">#REF!</definedName>
     <definedName name="RX">#REF!</definedName>
     <definedName name="TREATMENT_REDUCTION_FACTOR">DataAnalysis!$S$4</definedName>
@@ -940,9 +941,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1358,10 +1359,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1369,20 +1370,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1409,7 +1410,7 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1433,6 +1434,51 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1473,51 +1519,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1528,6 +1529,186 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="90">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1545,7 +1726,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1628,6 +1809,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1635,12 +1822,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1671,10 +1852,10 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1693,13 +1874,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1718,7 +1899,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1737,7 +1918,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1756,13 +1937,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1781,13 +1962,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1806,7 +1987,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1825,7 +2006,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1844,10 +2025,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1866,7 +2047,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1949,13 +2130,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1968,28 +2142,11 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2032,7 +2189,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2115,13 +2272,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -2134,16 +2284,47 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2162,13 +2343,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2187,7 +2368,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2206,7 +2387,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2225,16 +2406,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2253,13 +2434,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2278,7 +2459,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2297,7 +2478,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2316,187 +2497,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4984,6 +4985,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-97A9-40E7-8D33-4B2517BECF29}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4998,6 +5004,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-97A9-40E7-8D33-4B2517BECF29}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -5031,6 +5042,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-97A9-40E7-8D33-4B2517BECF29}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -5045,6 +5061,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-97A9-40E7-8D33-4B2517BECF29}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -12953,6 +12974,99 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>144129</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFF5D366-EAB5-4D65-AD3D-BCD5F1B4E3A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1659948" y="161925"/>
+          <a:ext cx="7172325" cy="5697204"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>130754</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>62347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>415637</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35072062-96B0-4F9C-B703-A06215FCCBF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9222799" y="252847"/>
+          <a:ext cx="9376929" cy="5501038"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -13340,24 +13454,24 @@
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{207A477A-FB1F-47F5-B946-D73B7C72F94A}" name="Category"/>
     <tableColumn id="2" xr3:uid="{86CED8D0-206F-4002-A24A-F8E1497A0CA4}" name="Item"/>
-    <tableColumn id="3" xr3:uid="{F5EA2DD7-210B-4370-8560-2907B685D44A}" name="Population" dataDxfId="56" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{CC827A20-C25C-46BC-A106-036DE51767EB}" name="Deaths" dataDxfId="55" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{F5EA2DD7-210B-4370-8560-2907B685D44A}" name="Population" dataDxfId="89" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{CC827A20-C25C-46BC-A106-036DE51767EB}" name="Deaths" dataDxfId="88" dataCellStyle="Comma">
       <calculatedColumnFormula>I4/1000000*D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8E90B761-6CDA-4072-8B3F-EE9E4A3B9D88}" name="Deaths ANNUALIZED" dataDxfId="54" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{8E90B761-6CDA-4072-8B3F-EE9E4A3B9D88}" name="Deaths ANNUALIZED" dataDxfId="87" dataCellStyle="Comma">
       <calculatedColumnFormula>E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{89E69BB2-3DA5-4262-A747-B8D278571066}" name="Reduced by treatment" dataDxfId="53"/>
-    <tableColumn id="7" xr3:uid="{10AA1F78-9955-442D-A986-3320A9E2F9CB}" name="Deaths If Treated" dataDxfId="52">
+    <tableColumn id="6" xr3:uid="{89E69BB2-3DA5-4262-A747-B8D278571066}" name="Reduced by treatment" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{10AA1F78-9955-442D-A986-3320A9E2F9CB}" name="Deaths If Treated" dataDxfId="85">
       <calculatedColumnFormula>F4-G4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{506F031A-2BF9-4146-A8D5-88CA71227CD4}" name="Deaths Per 1M" dataDxfId="51" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{506F031A-2BF9-4146-A8D5-88CA71227CD4}" name="Deaths Per 1M" dataDxfId="84" dataCellStyle="Comma">
       <calculatedColumnFormula>VLOOKUP(C4,CausesOfDeath,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2C13FF4D-F58B-42C2-8D7B-03A0E1FCB4FA}" name="Deaths Per 1M Anualized" dataDxfId="50">
+    <tableColumn id="9" xr3:uid="{2C13FF4D-F58B-42C2-8D7B-03A0E1FCB4FA}" name="Deaths Per 1M Anualized" dataDxfId="83">
       <calculatedColumnFormula>I4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{57D48FE7-D1AE-415B-A785-89D7331BBAEF}" name="Deaths Per 1M Anualized &amp; Treated" dataDxfId="49">
+    <tableColumn id="10" xr3:uid="{57D48FE7-D1AE-415B-A785-89D7331BBAEF}" name="Deaths Per 1M Anualized &amp; Treated" dataDxfId="82">
       <calculatedColumnFormula>J4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{3BE935E3-E388-43EB-851A-8BB56461B8DB}" name="Source"/>
@@ -13384,24 +13498,24 @@
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{D391423C-240D-442C-A328-F187DA950FD1}" name="Category"/>
     <tableColumn id="2" xr3:uid="{C589BD7F-34A7-4864-9CEC-4F95130FD8C7}" name="Item"/>
-    <tableColumn id="3" xr3:uid="{3632D569-EF83-4AB3-8F6C-F45C7885BD51}" name="Population" dataDxfId="14" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{B6A23A87-96CA-4D39-B034-712FA3FF75A7}" name="Deaths" dataDxfId="13" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{3632D569-EF83-4AB3-8F6C-F45C7885BD51}" name="Population" dataDxfId="47" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{B6A23A87-96CA-4D39-B034-712FA3FF75A7}" name="Deaths" dataDxfId="46" dataCellStyle="Comma">
       <calculatedColumnFormula>I298/1000000*D298</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1D785744-CAD3-477A-BF70-7BB82B1CDAB3}" name="Deaths ANNUALIZED" dataDxfId="12" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{1D785744-CAD3-477A-BF70-7BB82B1CDAB3}" name="Deaths ANNUALIZED" dataDxfId="45" dataCellStyle="Comma">
       <calculatedColumnFormula>E298</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B468FE7B-FEFA-4E58-B336-DE7E190814E6}" name="Reduced by treatment" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{3633D2FE-588C-4990-9258-3E3C3C304FDB}" name="Deaths If Treated" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{B468FE7B-FEFA-4E58-B336-DE7E190814E6}" name="Reduced by treatment" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{3633D2FE-588C-4990-9258-3E3C3C304FDB}" name="Deaths If Treated" dataDxfId="43">
       <calculatedColumnFormula>F298-G298</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D97F9E05-5529-4B17-9DF1-714DAF05367C}" name="Deaths Per 1M" dataDxfId="9" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{D97F9E05-5529-4B17-9DF1-714DAF05367C}" name="Deaths Per 1M" dataDxfId="42" dataCellStyle="Comma">
       <calculatedColumnFormula>VLOOKUP(C298,CausesOfDeath,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0F7120CB-BB05-4423-9ED9-A8BFEE6354D6}" name="Deaths Per 1M Anualized" dataDxfId="8">
+    <tableColumn id="9" xr3:uid="{0F7120CB-BB05-4423-9ED9-A8BFEE6354D6}" name="Deaths Per 1M Anualized" dataDxfId="41">
       <calculatedColumnFormula>I298</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2F255D86-BF1E-457F-B97E-A29EA304B1AE}" name="Deaths Per 1M Anualized &amp; Treated" dataDxfId="7">
+    <tableColumn id="10" xr3:uid="{2F255D86-BF1E-457F-B97E-A29EA304B1AE}" name="Deaths Per 1M Anualized &amp; Treated" dataDxfId="40">
       <calculatedColumnFormula>J298</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{ABF05F39-8A0C-4602-BCFE-4723EB85D99B}" name="Source"/>
@@ -13411,15 +13525,15 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{70F8C532-BBE7-4618-8873-55FB75CF3839}" name="Table1117" displayName="Table1117" ref="C349:E375" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{70F8C532-BBE7-4618-8873-55FB75CF3839}" name="Table1117" displayName="Table1117" ref="C349:E375" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <autoFilter ref="C349:E375" xr:uid="{70F8C532-BBE7-4618-8873-55FB75CF3839}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C354:E375">
     <sortCondition ref="E349:E375"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AA268E5A-F958-4FAE-8A06-6EE5D1154B3E}" name="Category" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{AAFB569E-9236-479F-B365-DE87CC45CF91}" name="Item" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{BB6475AE-8308-4E09-A358-1207353C1EDA}" name="Deaths Per 1M" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AA268E5A-F958-4FAE-8A06-6EE5D1154B3E}" name="Category" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{AAFB569E-9236-479F-B365-DE87CC45CF91}" name="Item" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{BB6475AE-8308-4E09-A358-1207353C1EDA}" name="Deaths Per 1M" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13429,44 +13543,44 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{22C702DF-AB72-4CCF-966F-194D74AB3C07}" name="Table9" displayName="Table9" ref="A2:Z23" totalsRowShown="0">
   <autoFilter ref="A2:Z23" xr:uid="{22C702DF-AB72-4CCF-966F-194D74AB3C07}"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{1756FBC2-36A2-4970-BA51-05D5914646E2}" name="Data As Of" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{14AF60F3-2739-47C0-926E-7663489238AE}" name="Start Date" dataDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{9264E4AE-A3B8-41F3-A687-0557C9ADD245}" name="End Date" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{1756FBC2-36A2-4970-BA51-05D5914646E2}" name="Data As Of" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{14AF60F3-2739-47C0-926E-7663489238AE}" name="Start Date" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{9264E4AE-A3B8-41F3-A687-0557C9ADD245}" name="End Date" dataDxfId="30"/>
     <tableColumn id="4" xr3:uid="{E16CC916-A021-4C7C-8248-7AE1EA8387C6}" name="Jurisdiction of Occurrence"/>
     <tableColumn id="5" xr3:uid="{40F01E33-17C0-4A73-8FD1-962D65D53C8E}" name="Year"/>
     <tableColumn id="6" xr3:uid="{A0252C56-9E46-4250-A2C8-02AE07481A52}" name="Month"/>
-    <tableColumn id="7" xr3:uid="{54E89D85-FC93-4FFC-8B21-0EA31F850B72}" name="All Cause" dataDxfId="86"/>
-    <tableColumn id="8" xr3:uid="{6D362D13-86D6-4E24-8A13-8009B7D67E99}" name="Natural Cause" dataDxfId="85"/>
-    <tableColumn id="9" xr3:uid="{EDF354A3-AC21-4FF4-B232-BA9461B90EE4}" name="Septicemia" dataDxfId="84"/>
-    <tableColumn id="10" xr3:uid="{C87E7EE2-8E7F-4978-B78D-F2E13B274041}" name="Malignant Neoplasms" dataDxfId="83"/>
-    <tableColumn id="11" xr3:uid="{204F8A8A-2F17-41D0-A27E-7896A7322F13}" name="Diabetes Mellitus" dataDxfId="82"/>
-    <tableColumn id="12" xr3:uid="{599EA73C-EA25-486C-A140-C40FA63C4965}" name="Alzheimer Disease" dataDxfId="81"/>
-    <tableColumn id="13" xr3:uid="{2DC86544-0044-4405-8614-E9E944E7AEBC}" name="Influenza and Pneumonia" dataDxfId="80"/>
-    <tableColumn id="14" xr3:uid="{F54B6E6D-28E6-4E3B-8ED4-8A6EF239A1C4}" name="Chronic Lower Respiratory Diseases" dataDxfId="79"/>
-    <tableColumn id="15" xr3:uid="{D9A02975-5A42-4A5E-8DF2-04F8C2DBE409}" name="Other Diseases of Respiratory System" dataDxfId="78"/>
-    <tableColumn id="16" xr3:uid="{7530D119-DF98-41E8-8345-0DDC7ACC6115}" name="Nephritis, Nephrotic Syndrome and Nephrosis" dataDxfId="77"/>
-    <tableColumn id="17" xr3:uid="{59A50439-4EBC-488C-A7EF-9E60405B33C6}" name="Symptoms, Signs and Abnormal Clinical and Laboratory Findings, Not Elsewhere Classified" dataDxfId="76"/>
-    <tableColumn id="18" xr3:uid="{07C87E05-F9A1-408C-A5D1-FF93DF32EF34}" name="Diseases of Heart" dataDxfId="75"/>
-    <tableColumn id="19" xr3:uid="{1BD4627A-AD38-47B7-8F21-2BCFD83F4655}" name="Cerebrovascular Diseases" dataDxfId="74"/>
+    <tableColumn id="7" xr3:uid="{54E89D85-FC93-4FFC-8B21-0EA31F850B72}" name="All Cause" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{6D362D13-86D6-4E24-8A13-8009B7D67E99}" name="Natural Cause" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{EDF354A3-AC21-4FF4-B232-BA9461B90EE4}" name="Septicemia" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{C87E7EE2-8E7F-4978-B78D-F2E13B274041}" name="Malignant Neoplasms" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{204F8A8A-2F17-41D0-A27E-7896A7322F13}" name="Diabetes Mellitus" dataDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{599EA73C-EA25-486C-A140-C40FA63C4965}" name="Alzheimer Disease" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{2DC86544-0044-4405-8614-E9E944E7AEBC}" name="Influenza and Pneumonia" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{F54B6E6D-28E6-4E3B-8ED4-8A6EF239A1C4}" name="Chronic Lower Respiratory Diseases" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{D9A02975-5A42-4A5E-8DF2-04F8C2DBE409}" name="Other Diseases of Respiratory System" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{7530D119-DF98-41E8-8345-0DDC7ACC6115}" name="Nephritis, Nephrotic Syndrome and Nephrosis" dataDxfId="20"/>
+    <tableColumn id="17" xr3:uid="{59A50439-4EBC-488C-A7EF-9E60405B33C6}" name="Symptoms, Signs and Abnormal Clinical and Laboratory Findings, Not Elsewhere Classified" dataDxfId="19"/>
+    <tableColumn id="18" xr3:uid="{07C87E05-F9A1-408C-A5D1-FF93DF32EF34}" name="Diseases of Heart" dataDxfId="18"/>
+    <tableColumn id="19" xr3:uid="{1BD4627A-AD38-47B7-8F21-2BCFD83F4655}" name="Cerebrovascular Diseases" dataDxfId="17"/>
     <tableColumn id="20" xr3:uid="{3BF1248E-2B89-4F67-8A31-AED1310F4F38}" name="Accidents (Unintentional Injuries)"/>
     <tableColumn id="21" xr3:uid="{08730AE9-2D74-4658-B9C7-BFC282F5B532}" name="Motor Vehicle Accidents"/>
     <tableColumn id="22" xr3:uid="{AA8F45D0-051E-4FEF-85D0-627980539BC5}" name="Intentional Self-Harm (Suicide)"/>
     <tableColumn id="23" xr3:uid="{4A961376-87A3-400A-A62F-E17F90B1E0D4}" name="Assault (Homicide)"/>
     <tableColumn id="24" xr3:uid="{85C13921-0AC3-453A-A4F3-68243FF74B9E}" name="Drug Overdose"/>
-    <tableColumn id="25" xr3:uid="{E39AA2F3-FEE7-4E6B-AB5A-C5DA5ECB38D5}" name="COVID-19 (Multiple Cause of Death)" dataDxfId="73"/>
-    <tableColumn id="26" xr3:uid="{47D0D08F-B3C1-4E78-8E20-096F11883BA8}" name="COVID-19 (Underlying Cause of Death)" dataDxfId="72"/>
+    <tableColumn id="25" xr3:uid="{E39AA2F3-FEE7-4E6B-AB5A-C5DA5ECB38D5}" name="COVID-19 (Multiple Cause of Death)" dataDxfId="16"/>
+    <tableColumn id="26" xr3:uid="{47D0D08F-B3C1-4E78-8E20-096F11883BA8}" name="COVID-19 (Underlying Cause of Death)" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0526DD06-C994-4B65-9158-8E5A1858B2D0}" name="Table1" displayName="Table1" ref="H5:J14" totalsRowCount="1" headerRowDxfId="69" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0526DD06-C994-4B65-9158-8E5A1858B2D0}" name="Table1" displayName="Table1" ref="H5:J14" totalsRowCount="1" headerRowDxfId="14" headerRowCellStyle="Normal 2">
   <autoFilter ref="H5:J13" xr:uid="{0526DD06-C994-4B65-9158-8E5A1858B2D0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D7322301-7244-4226-9921-049FE5054301}" name="Age" totalsRowLabel="Total" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{84919B8F-83E5-4884-88D3-E21F5F75226D}" name="Pop_thousands" dataDxfId="71" totalsRowDxfId="60" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{DF6542C0-5B37-4E1C-9CA2-13657A4A0AA8}" name="Pop" totalsRowFunction="sum" dataDxfId="70" totalsRowDxfId="59" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{D7322301-7244-4226-9921-049FE5054301}" name="Age" totalsRowLabel="Total" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{84919B8F-83E5-4884-88D3-E21F5F75226D}" name="Pop_thousands" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{DF6542C0-5B37-4E1C-9CA2-13657A4A0AA8}" name="Pop" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Comma">
       <calculatedColumnFormula>I6*1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13478,14 +13592,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{297B6E40-D8A8-4C1B-A5DE-A86511B92607}" name="CovidDeaths_ByAge" displayName="CovidDeaths_ByAge" ref="A1:I9" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I9" xr:uid="{297B6E40-D8A8-4C1B-A5DE-A86511B92607}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6ECAA39B-D81F-4219-9431-8AB1DB4574D5}" uniqueName="1" name="age_group" queryTableFieldId="1" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{6ECAA39B-D81F-4219-9431-8AB1DB4574D5}" uniqueName="1" name="age_group" queryTableFieldId="1" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{D5344731-06A6-4F50-AB06-280758905482}" uniqueName="2" name="covid_19_deaths" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{ABD8C418-095E-4382-B009-BABBD9FC8FF0}" uniqueName="3" name="state" queryTableFieldId="3" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{2B396EE3-91BA-4DC5-A0FB-B20454468B24}" uniqueName="4" name="group" queryTableFieldId="4" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{AF9A729A-E067-4582-ABF0-BD6C73F7B598}" uniqueName="5" name="sex" queryTableFieldId="5" dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{FDF08FB5-F75A-4E55-BF30-334B636B45B3}" uniqueName="6" name="data_as_of" queryTableFieldId="6" dataDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{70DF0AC4-5393-4861-9105-4E854E1D5BB3}" uniqueName="7" name="end_date" queryTableFieldId="7" dataDxfId="63"/>
-    <tableColumn id="8" xr3:uid="{6D69F3CB-3A4F-4A7B-AD74-5F4FB57007FC}" uniqueName="8" name="start_date" queryTableFieldId="8" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{ABD8C418-095E-4382-B009-BABBD9FC8FF0}" uniqueName="3" name="state" queryTableFieldId="3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2B396EE3-91BA-4DC5-A0FB-B20454468B24}" uniqueName="4" name="group" queryTableFieldId="4" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{AF9A729A-E067-4582-ABF0-BD6C73F7B598}" uniqueName="5" name="sex" queryTableFieldId="5" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{FDF08FB5-F75A-4E55-BF30-334B636B45B3}" uniqueName="6" name="data_as_of" queryTableFieldId="6" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{70DF0AC4-5393-4861-9105-4E854E1D5BB3}" uniqueName="7" name="end_date" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{6D69F3CB-3A4F-4A7B-AD74-5F4FB57007FC}" uniqueName="8" name="start_date" queryTableFieldId="8" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{92A7DB8F-FE4B-4A3D-B24A-286BFEABCD45}" uniqueName="9" name="month" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13500,8 +13614,8 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8F4405B9-D1C7-4EF9-9EAA-7B6CCFB1A8E2}" name="Cause"/>
-    <tableColumn id="2" xr3:uid="{DBE8CE53-565B-4D89-8C2C-FA49189C9186}" name="Deaths/100K" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{A419773C-6048-49C5-B2CF-311CC56A3903}" name="Deaths/ 1M" dataDxfId="57">
+    <tableColumn id="2" xr3:uid="{DBE8CE53-565B-4D89-8C2C-FA49189C9186}" name="Deaths/100K" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A419773C-6048-49C5-B2CF-311CC56A3903}" name="Deaths/ 1M" dataDxfId="0">
       <calculatedColumnFormula>B2*10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13514,7 +13628,7 @@
   <autoFilter ref="C41:D44" xr:uid="{ED03B713-BD16-4F09-BB71-184DF94B6636}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C1108C68-CD0A-465D-9BAF-20727C88BC5E}" name="Data"/>
-    <tableColumn id="2" xr3:uid="{10A6BCDF-EE1D-41E1-B644-AE7378B68A5A}" name="Deaths Per 1 Million" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{10A6BCDF-EE1D-41E1-B644-AE7378B68A5A}" name="Deaths Per 1 Million" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13532,24 +13646,24 @@
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{06A58D96-7CD8-4FCB-B525-380DBFA332AE}" name="Category"/>
     <tableColumn id="2" xr3:uid="{C4EE0338-CABF-46B1-9FD0-CA59403DB188}" name="Item"/>
-    <tableColumn id="3" xr3:uid="{734E54A4-F34D-4C80-A25D-4915C44AFAEF}" name="Population" dataDxfId="47" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{7C0A0A29-9CC1-4627-B692-BD171DFD7D9C}" name="Deaths" dataDxfId="46" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{734E54A4-F34D-4C80-A25D-4915C44AFAEF}" name="Population" dataDxfId="80" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{7C0A0A29-9CC1-4627-B692-BD171DFD7D9C}" name="Deaths" dataDxfId="79" dataCellStyle="Comma">
       <calculatedColumnFormula>I59/1000000*D59</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2EB9954F-E0BC-461E-93BF-F317F7F8CC9B}" name="Deaths ANNUALIZED" dataDxfId="45" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{2EB9954F-E0BC-461E-93BF-F317F7F8CC9B}" name="Deaths ANNUALIZED" dataDxfId="78" dataCellStyle="Comma">
       <calculatedColumnFormula>E59</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A0134430-1AED-4781-AB09-252D1539E37C}" name="Reduced by treatment" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{27C2921D-846E-4AEA-8160-8D9237F43838}" name="Deaths If Treated" dataDxfId="43">
+    <tableColumn id="6" xr3:uid="{A0134430-1AED-4781-AB09-252D1539E37C}" name="Reduced by treatment" dataDxfId="77"/>
+    <tableColumn id="7" xr3:uid="{27C2921D-846E-4AEA-8160-8D9237F43838}" name="Deaths If Treated" dataDxfId="76">
       <calculatedColumnFormula>F59-G59</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{3D4D7792-B86D-40A9-9ED9-A2D5C80A713D}" name="Deaths Per 1M" dataDxfId="42" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{3D4D7792-B86D-40A9-9ED9-A2D5C80A713D}" name="Deaths Per 1M" dataDxfId="75" dataCellStyle="Comma">
       <calculatedColumnFormula>VLOOKUP(C59,CausesOfDeath,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{942139B3-DD50-4E97-80BE-35EE8EC7C657}" name="Deaths Per 1M Anualized" dataDxfId="41">
+    <tableColumn id="9" xr3:uid="{942139B3-DD50-4E97-80BE-35EE8EC7C657}" name="Deaths Per 1M Anualized" dataDxfId="74">
       <calculatedColumnFormula>I59</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5F7E2C5D-54BF-444C-B201-EE332B67C800}" name="Deaths Per 1M Anualized &amp; Treated" dataDxfId="40">
+    <tableColumn id="10" xr3:uid="{5F7E2C5D-54BF-444C-B201-EE332B67C800}" name="Deaths Per 1M Anualized &amp; Treated" dataDxfId="73">
       <calculatedColumnFormula>J59</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{6C3F9CEF-9BBF-44F2-AD4A-3CF6CE68C730}" name="Source"/>
@@ -13576,7 +13690,7 @@
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{134B6F78-A85B-44A7-9048-74A0A835C29A}" name="Data"/>
-    <tableColumn id="2" xr3:uid="{0CF278A8-F083-451D-A018-71E736060D3F}" name="Deaths Per 1 Million" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{0CF278A8-F083-451D-A018-71E736060D3F}" name="Deaths Per 1 Million" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13601,14 +13715,14 @@
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{250A4DCF-0DD5-48F0-AE14-81CC6E5176BC}" name="Data"/>
-    <tableColumn id="2" xr3:uid="{04175E82-97E6-4560-8478-BC365F4904CF}" name="Deaths Per 1 Million" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{04175E82-97E6-4560-8478-BC365F4904CF}" name="Deaths Per 1 Million" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7152FBB6-CECC-446A-B5BD-9C527259BC4B}" name="Table11" displayName="Table11" ref="C191:E215" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="36" tableBorderDxfId="37" totalsRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7152FBB6-CECC-446A-B5BD-9C527259BC4B}" name="Table11" displayName="Table11" ref="C191:E215" totalsRowShown="0" headerRowDxfId="70" headerRowBorderDxfId="69" tableBorderDxfId="68" totalsRowBorderDxfId="67">
   <autoFilter ref="C191:E215" xr:uid="{7152FBB6-CECC-446A-B5BD-9C527259BC4B}">
     <filterColumn colId="1">
       <filters>
@@ -13634,16 +13748,16 @@
     <sortCondition ref="E191:E215"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{265B86B2-390C-457D-B9B3-065DABD5899E}" name="Category" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{5C6E6CCE-288F-4423-A3C5-D85543E53C21}" name="Item" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{6DDBD760-5850-4F98-869E-C8FF25E13700}" name="Deaths Per 1M" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{265B86B2-390C-457D-B9B3-065DABD5899E}" name="Category" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{5C6E6CCE-288F-4423-A3C5-D85543E53C21}" name="Item" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{6DDBD760-5850-4F98-869E-C8FF25E13700}" name="Deaths Per 1M" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{40849896-B32B-4442-8427-10162335AFDF}" name="Table1113" displayName="Table1113" ref="C117:E145" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="28" tableBorderDxfId="29" totalsRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{40849896-B32B-4442-8427-10162335AFDF}" name="Table1113" displayName="Table1113" ref="C117:E145" totalsRowShown="0" headerRowDxfId="63" headerRowBorderDxfId="62" tableBorderDxfId="61" totalsRowBorderDxfId="60">
   <autoFilter ref="C117:E145" xr:uid="{40849896-B32B-4442-8427-10162335AFDF}">
     <filterColumn colId="0">
       <filters>
@@ -13662,9 +13776,9 @@
     <sortCondition ref="E191:E215"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6C0FECBE-E1BE-4A7D-A98F-5F5F113BCC7E}" name="Category" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{1712FE42-AF7D-459B-8989-EEE89D1B0ADF}" name="Item" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{BE42ADA3-3994-449E-AF64-6FE8EE5913A3}" name="Deaths Per 1M" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{6C0FECBE-E1BE-4A7D-A98F-5F5F113BCC7E}" name="Category" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{1712FE42-AF7D-459B-8989-EEE89D1B0ADF}" name="Item" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{BE42ADA3-3994-449E-AF64-6FE8EE5913A3}" name="Deaths Per 1M" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13678,7 +13792,7 @@
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{AD25448E-38E9-4229-8653-8DD1987A6CF7}" name="Data"/>
-    <tableColumn id="2" xr3:uid="{6943DDA0-D79C-4D26-B45D-9A3C4BF639B1}" name="Deaths Per 1 Million" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{6943DDA0-D79C-4D26-B45D-9A3C4BF639B1}" name="Deaths Per 1 Million" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13705,24 +13819,24 @@
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F13323CB-B6C1-491F-A8AE-3EDBC0F7DFFA}" name="Category"/>
     <tableColumn id="2" xr3:uid="{684CF8E2-BA29-4AAF-9CD8-8ADB0005C85B}" name="Item"/>
-    <tableColumn id="3" xr3:uid="{50A9A37B-DD9E-4110-8EC4-2BE676EFD21C}" name="Population" dataDxfId="22" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{DAE16139-3667-495C-8205-B0050B116769}" name="Deaths" dataDxfId="21" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{50A9A37B-DD9E-4110-8EC4-2BE676EFD21C}" name="Population" dataDxfId="55" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{DAE16139-3667-495C-8205-B0050B116769}" name="Deaths" dataDxfId="54" dataCellStyle="Comma">
       <calculatedColumnFormula>I248/1000000*D248</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4410B732-9AAD-4B79-A9F8-7B59C24B7C7B}" name="Deaths ANNUALIZED" dataDxfId="20" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{4410B732-9AAD-4B79-A9F8-7B59C24B7C7B}" name="Deaths ANNUALIZED" dataDxfId="53" dataCellStyle="Comma">
       <calculatedColumnFormula>E248</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6598BE76-D811-493F-9368-27781F156ECE}" name="Reduced by treatment" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{AF79DACB-72BF-4840-AD59-1817A832DF68}" name="Deaths If Treated" dataDxfId="18">
+    <tableColumn id="6" xr3:uid="{6598BE76-D811-493F-9368-27781F156ECE}" name="Reduced by treatment" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{AF79DACB-72BF-4840-AD59-1817A832DF68}" name="Deaths If Treated" dataDxfId="51">
       <calculatedColumnFormula>F248-G248</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4965AD1A-2C1E-4CAF-A631-100B67FD4542}" name="Deaths Per 1M" dataDxfId="17" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{4965AD1A-2C1E-4CAF-A631-100B67FD4542}" name="Deaths Per 1M" dataDxfId="50" dataCellStyle="Comma">
       <calculatedColumnFormula>VLOOKUP(C248,CausesOfDeath,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CEC1C981-BD4D-490E-8F70-045F82E35C8A}" name="Deaths Per 1M Anualized" dataDxfId="16">
+    <tableColumn id="9" xr3:uid="{CEC1C981-BD4D-490E-8F70-045F82E35C8A}" name="Deaths Per 1M Anualized" dataDxfId="49">
       <calculatedColumnFormula>I248</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C4C1880E-C4B5-45F5-BC42-BDF305F3B710}" name="Deaths Per 1M Anualized &amp; Treated" dataDxfId="15">
+    <tableColumn id="10" xr3:uid="{C4C1880E-C4B5-45F5-BC42-BDF305F3B710}" name="Deaths Per 1M Anualized &amp; Treated" dataDxfId="48">
       <calculatedColumnFormula>J248</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{AFF3C34C-1102-4235-9A3B-C8FB1DC8D0F7}" name="Source"/>
@@ -14027,11 +14141,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F931DED-F611-4C25-B12C-82FA68619981}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T48" sqref="T48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="14" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23822403-C293-4F90-8BAB-1B47EBB44947}">
   <dimension ref="B1:U375"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14108,7 +14238,7 @@
       <c r="R3" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="S3" s="69">
+      <c r="S3" s="56">
         <f>F4/E4</f>
         <v>0.61004291459096094</v>
       </c>
@@ -14138,22 +14268,22 @@
         <v>406557</v>
       </c>
       <c r="G4" s="4">
-        <f>F4*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" ref="G4:G14" si="0">F4*TREATMENT_REDUCTION_FACTOR</f>
         <v>345573.45</v>
       </c>
       <c r="H4" s="7">
         <f>F4-G4</f>
         <v>60983.549999999988</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="55">
         <f>E4/D4*1000000</f>
         <v>2003.7342265009818</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="55">
         <f>F4/D4*1000000</f>
         <v>1222.3638676003236</v>
       </c>
-      <c r="K4" s="68">
+      <c r="K4" s="55">
         <f>H4/D4*1000000</f>
         <v>183.35458014004848</v>
       </c>
@@ -14163,7 +14293,7 @@
       <c r="R4" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="S4" s="69">
+      <c r="S4" s="56">
         <v>0.85</v>
       </c>
       <c r="T4">
@@ -14189,27 +14319,27 @@
         <v>294649</v>
       </c>
       <c r="F5" s="4">
-        <f>E5*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" ref="F5:F14" si="1">E5*CDC_ANUALIZATION_FACTOR</f>
         <v>179748.53474131206</v>
       </c>
       <c r="G5" s="4">
-        <f>F5*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="0"/>
         <v>152786.25453011526</v>
       </c>
       <c r="H5" s="7">
         <f>F5-G5</f>
         <v>26962.280211196805</v>
       </c>
-      <c r="I5" s="68">
-        <f t="shared" ref="I5" si="0">E5/D5*1000000</f>
+      <c r="I5" s="55">
+        <f t="shared" ref="I5" si="2">E5/D5*1000000</f>
         <v>948.1835939385553</v>
       </c>
-      <c r="J5" s="68">
-        <f t="shared" ref="J5" si="1">F5/D5*1000000</f>
+      <c r="J5" s="55">
+        <f t="shared" ref="J5" si="3">F5/D5*1000000</f>
         <v>578.43268321360858</v>
       </c>
-      <c r="K5" s="68">
-        <f t="shared" ref="K5" si="2">H5/D5*1000000</f>
+      <c r="K5" s="55">
+        <f t="shared" ref="K5" si="4">H5/D5*1000000</f>
         <v>86.764902482041265</v>
       </c>
       <c r="L5" t="s">
@@ -14233,27 +14363,27 @@
         <v>147081</v>
       </c>
       <c r="F6" s="4">
-        <f>E6*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="1"/>
         <v>89725.721920953132</v>
       </c>
       <c r="G6" s="4">
-        <f>F6*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="0"/>
         <v>76266.863632810157</v>
       </c>
       <c r="H6" s="7">
         <f>F6-G6</f>
         <v>13458.858288142976</v>
       </c>
-      <c r="I6" s="68">
-        <f t="shared" ref="I6" si="3">E6/D6*1000000</f>
+      <c r="I6" s="55">
+        <f t="shared" ref="I6" si="5">E6/D6*1000000</f>
         <v>528.50561991548568</v>
       </c>
-      <c r="J6" s="68">
-        <f t="shared" ref="J6" si="4">F6/D6*1000000</f>
+      <c r="J6" s="55">
+        <f t="shared" ref="J6" si="6">F6/D6*1000000</f>
         <v>322.41110875094552</v>
       </c>
-      <c r="K6" s="68">
-        <f t="shared" ref="K6" si="5">H6/D6*1000000</f>
+      <c r="K6" s="55">
+        <f t="shared" ref="K6" si="7">H6/D6*1000000</f>
         <v>48.361666312641852</v>
       </c>
       <c r="L6" t="s">
@@ -14269,7 +14399,7 @@
         <v>51</v>
       </c>
       <c r="D7" s="4">
-        <f>VLOOKUP(C7,AGE_POP,3,FALSE)</f>
+        <f t="shared" ref="D7:D14" si="8">VLOOKUP(C7,AGE_POP,3,FALSE)</f>
         <v>74660000</v>
       </c>
       <c r="E7" s="4">
@@ -14277,27 +14407,27 @@
         <v>439</v>
       </c>
       <c r="F7" s="4">
-        <f>E7*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="1"/>
         <v>267.80883950543188</v>
       </c>
       <c r="G7" s="4">
-        <f>F7*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="0"/>
         <v>227.63751357961709</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" ref="H7:H14" si="6">F7-G7</f>
+        <f t="shared" ref="H7:H14" si="9">F7-G7</f>
         <v>40.171325925814784</v>
       </c>
-      <c r="I7" s="68">
+      <c r="I7" s="55">
         <f>E7/D7*1000000</f>
         <v>5.8799892847575679</v>
       </c>
-      <c r="J7" s="68">
-        <f t="shared" ref="J7:J14" si="7">F7/D7*1000000</f>
+      <c r="J7" s="55">
+        <f t="shared" ref="J7:J14" si="10">F7/D7*1000000</f>
         <v>3.5870458010371267</v>
       </c>
-      <c r="K7" s="68">
-        <f t="shared" ref="K7:K14" si="8">H7/D7*1000000</f>
+      <c r="K7" s="55">
+        <f t="shared" ref="K7:K14" si="11">H7/D7*1000000</f>
         <v>0.53805687015556902</v>
       </c>
       <c r="L7" t="s">
@@ -14313,7 +14443,7 @@
         <v>52</v>
       </c>
       <c r="D8" s="4">
-        <f>VLOOKUP(C8,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>53184000</v>
       </c>
       <c r="E8" s="4">
@@ -14321,27 +14451,27 @@
         <v>3212</v>
       </c>
       <c r="F8" s="4">
-        <f>E8*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="1"/>
         <v>1959.4578416661666</v>
       </c>
       <c r="G8" s="4">
-        <f>F8*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="0"/>
         <v>1665.5391654162415</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>293.91867624992506</v>
       </c>
-      <c r="I8" s="68">
-        <f t="shared" ref="I8:I14" si="9">E8/D8*1000000</f>
+      <c r="I8" s="55">
+        <f t="shared" ref="I8:I14" si="12">E8/D8*1000000</f>
         <v>60.394103489771354</v>
       </c>
-      <c r="J8" s="68">
-        <f t="shared" si="7"/>
+      <c r="J8" s="55">
+        <f t="shared" si="10"/>
         <v>36.842994917008248</v>
       </c>
-      <c r="K8" s="68">
-        <f t="shared" si="8"/>
+      <c r="K8" s="55">
+        <f t="shared" si="11"/>
         <v>5.5264492375512377</v>
       </c>
       <c r="L8" t="s">
@@ -14357,7 +14487,7 @@
         <v>53</v>
       </c>
       <c r="D9" s="4">
-        <f>VLOOKUP(C9,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>45194000</v>
       </c>
       <c r="E9" s="4">
@@ -14365,27 +14495,27 @@
         <v>9240</v>
       </c>
       <c r="F9" s="4">
-        <f>E9*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="1"/>
         <v>5636.7965308204793</v>
       </c>
       <c r="G9" s="4">
-        <f>F9*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="0"/>
         <v>4791.2770511974077</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>845.51947962307167</v>
       </c>
-      <c r="I9" s="68">
-        <f t="shared" si="9"/>
+      <c r="I9" s="55">
+        <f t="shared" si="12"/>
         <v>204.45191839624729</v>
       </c>
-      <c r="J9" s="68">
-        <f t="shared" si="7"/>
+      <c r="J9" s="55">
+        <f t="shared" si="10"/>
         <v>124.72444419216002</v>
       </c>
-      <c r="K9" s="68">
-        <f t="shared" si="8"/>
+      <c r="K9" s="55">
+        <f t="shared" si="11"/>
         <v>18.708666628823995</v>
       </c>
       <c r="L9" t="s">
@@ -14400,7 +14530,7 @@
         <v>54</v>
       </c>
       <c r="D10" s="4">
-        <f>VLOOKUP(C10,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>41153000</v>
       </c>
       <c r="E10" s="4">
@@ -14408,27 +14538,27 @@
         <v>23501</v>
       </c>
       <c r="F10" s="4">
-        <f>E10*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="1"/>
         <v>14336.618535802172</v>
       </c>
       <c r="G10" s="4">
-        <f>F10*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="0"/>
         <v>12186.125755431845</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2150.4927803703267</v>
       </c>
-      <c r="I10" s="68">
-        <f t="shared" si="9"/>
+      <c r="I10" s="55">
+        <f t="shared" si="12"/>
         <v>571.0640779530047</v>
       </c>
-      <c r="J10" s="68">
-        <f t="shared" si="7"/>
+      <c r="J10" s="55">
+        <f t="shared" si="10"/>
         <v>348.37359453265066</v>
       </c>
-      <c r="K10" s="68">
-        <f t="shared" si="8"/>
+      <c r="K10" s="55">
+        <f t="shared" si="11"/>
         <v>52.25603917989762</v>
       </c>
       <c r="L10" t="s">
@@ -14443,7 +14573,7 @@
         <v>55</v>
       </c>
       <c r="D11" s="4">
-        <f>VLOOKUP(C11,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>64105000</v>
       </c>
       <c r="E11" s="4">
@@ -14451,27 +14581,27 @@
         <v>110689</v>
       </c>
       <c r="F11" s="4">
-        <f>E11*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="1"/>
         <v>67525.040173158879</v>
       </c>
       <c r="G11" s="4">
-        <f>F11*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="0"/>
         <v>57396.284147185048</v>
       </c>
       <c r="H11" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10128.756025973831</v>
       </c>
-      <c r="I11" s="68">
-        <f t="shared" si="9"/>
+      <c r="I11" s="55">
+        <f t="shared" si="12"/>
         <v>1726.68278605413</v>
       </c>
-      <c r="J11" s="68">
-        <f t="shared" si="7"/>
+      <c r="J11" s="55">
+        <f t="shared" si="10"/>
         <v>1053.350599378502</v>
       </c>
-      <c r="K11" s="68">
-        <f t="shared" si="8"/>
+      <c r="K11" s="55">
+        <f t="shared" si="11"/>
         <v>158.00258990677531</v>
       </c>
       <c r="L11" t="s">
@@ -14486,7 +14616,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="4">
-        <f>VLOOKUP(C12,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>32455000</v>
       </c>
       <c r="E12" s="4">
@@ -14494,27 +14624,27 @@
         <v>147568</v>
       </c>
       <c r="F12" s="4">
-        <f>E12*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="1"/>
         <v>90022.812820358929</v>
       </c>
       <c r="G12" s="4">
-        <f>F12*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="0"/>
         <v>76519.390897305086</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>13503.421923053844</v>
       </c>
-      <c r="I12" s="68">
-        <f t="shared" si="9"/>
+      <c r="I12" s="55">
+        <f t="shared" si="12"/>
         <v>4546.8494839007853</v>
       </c>
-      <c r="J12" s="68">
-        <f t="shared" si="7"/>
+      <c r="J12" s="55">
+        <f t="shared" si="10"/>
         <v>2773.7733113652421</v>
       </c>
-      <c r="K12" s="68">
-        <f t="shared" si="8"/>
+      <c r="K12" s="55">
+        <f t="shared" si="11"/>
         <v>416.06599670478641</v>
       </c>
       <c r="L12" t="s">
@@ -14529,7 +14659,7 @@
         <v>57</v>
       </c>
       <c r="D13" s="4">
-        <f>VLOOKUP(C13,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>15785000</v>
       </c>
       <c r="E13" s="4">
@@ -14537,27 +14667,27 @@
         <v>176763</v>
       </c>
       <c r="F13" s="4">
-        <f>E13*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="1"/>
         <v>107833.01571184203</v>
       </c>
       <c r="G13" s="4">
-        <f>F13*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="0"/>
         <v>91658.063355065722</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>16174.95235677631</v>
       </c>
-      <c r="I13" s="68">
-        <f t="shared" si="9"/>
+      <c r="I13" s="55">
+        <f t="shared" si="12"/>
         <v>11198.16281279696</v>
       </c>
-      <c r="J13" s="68">
-        <f t="shared" si="7"/>
+      <c r="J13" s="55">
+        <f t="shared" si="10"/>
         <v>6831.3598803827708</v>
       </c>
-      <c r="K13" s="68">
-        <f t="shared" si="8"/>
+      <c r="K13" s="55">
+        <f t="shared" si="11"/>
         <v>1024.7039820574159</v>
       </c>
       <c r="L13" t="s">
@@ -14572,7 +14702,7 @@
         <v>58</v>
       </c>
       <c r="D14" s="4">
-        <f>VLOOKUP(C14,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>6063000</v>
       </c>
       <c r="E14" s="4">
@@ -14580,27 +14710,27 @@
         <v>187342</v>
       </c>
       <c r="F14" s="4">
-        <f>E14*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="1"/>
         <v>114286.65970529981</v>
       </c>
       <c r="G14" s="4">
-        <f>F14*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="0"/>
         <v>97143.660749504837</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>17142.998955794974</v>
       </c>
-      <c r="I14" s="68">
-        <f t="shared" si="9"/>
+      <c r="I14" s="55">
+        <f t="shared" si="12"/>
         <v>30899.22480620155</v>
       </c>
-      <c r="J14" s="68">
-        <f t="shared" si="7"/>
+      <c r="J14" s="55">
+        <f t="shared" si="10"/>
         <v>18849.853159376515</v>
       </c>
-      <c r="K14" s="68">
-        <f t="shared" si="8"/>
+      <c r="K14" s="55">
+        <f t="shared" si="11"/>
         <v>2827.4779739064779</v>
       </c>
       <c r="L14" t="s">
@@ -14628,19 +14758,19 @@
         <v>0</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" ref="H15" si="10">F15-G15</f>
+        <f t="shared" ref="H15" si="13">F15-G15</f>
         <v>18132.5</v>
       </c>
-      <c r="I15" s="68">
-        <f t="shared" ref="I15" si="11">E15/D15*1000000</f>
+      <c r="I15" s="55">
+        <f t="shared" ref="I15" si="14">E15/D15*1000000</f>
         <v>80.550339733801721</v>
       </c>
-      <c r="J15" s="68">
-        <f t="shared" ref="J15" si="12">F15/D15*1000000</f>
+      <c r="J15" s="55">
+        <f t="shared" ref="J15" si="15">F15/D15*1000000</f>
         <v>100.68792466725216</v>
       </c>
-      <c r="K15" s="68">
-        <f t="shared" ref="K15" si="13">H15/D15*1000000</f>
+      <c r="K15" s="55">
+        <f t="shared" ref="K15" si="16">H15/D15*1000000</f>
         <v>100.68792466725216</v>
       </c>
       <c r="L15" t="s">
@@ -14662,26 +14792,26 @@
         <v>72530</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" ref="F16" si="14">E16+3/12*E16</f>
+        <f t="shared" ref="F16" si="17">E16+3/12*E16</f>
         <v>90662.5</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
       </c>
       <c r="H16" s="7">
-        <f t="shared" ref="H16:H17" si="15">F16-G16</f>
+        <f t="shared" ref="H16:H17" si="18">F16-G16</f>
         <v>90662.5</v>
       </c>
-      <c r="I16" s="68">
-        <f t="shared" ref="I16:I17" si="16">E16/D16*1000000</f>
+      <c r="I16" s="55">
+        <f t="shared" ref="I16:I17" si="19">E16/D16*1000000</f>
         <v>402.75169866900865</v>
       </c>
-      <c r="J16" s="68">
-        <f t="shared" ref="J16:J17" si="17">F16/D16*1000000</f>
+      <c r="J16" s="55">
+        <f t="shared" ref="J16:J17" si="20">F16/D16*1000000</f>
         <v>503.43962333626081</v>
       </c>
-      <c r="K16" s="68">
-        <f t="shared" ref="K16:K17" si="18">H16/D16*1000000</f>
+      <c r="K16" s="55">
+        <f t="shared" ref="K16:K17" si="21">H16/D16*1000000</f>
         <v>503.43962333626081</v>
       </c>
       <c r="L16" t="s">
@@ -14710,19 +14840,19 @@
         <v>0</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>181325</v>
       </c>
-      <c r="I17" s="68">
-        <f t="shared" si="16"/>
+      <c r="I17" s="55">
+        <f t="shared" si="19"/>
         <v>805.50339733801729</v>
       </c>
-      <c r="J17" s="68">
-        <f t="shared" si="17"/>
+      <c r="J17" s="55">
+        <f t="shared" si="20"/>
         <v>1006.8792466725216</v>
       </c>
-      <c r="K17" s="68">
-        <f t="shared" si="18"/>
+      <c r="K17" s="55">
+        <f t="shared" si="21"/>
         <v>1006.8792466725216</v>
       </c>
       <c r="L17" t="s">
@@ -14749,19 +14879,19 @@
         <v>0</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H21" si="19">F18-G18</f>
+        <f t="shared" ref="H18:H21" si="22">F18-G18</f>
         <v>50000000</v>
       </c>
-      <c r="I18" s="68">
-        <f t="shared" ref="I18:I21" si="20">E18/D18*1000000</f>
+      <c r="I18" s="55">
+        <f t="shared" ref="I18:I21" si="23">E18/D18*1000000</f>
         <v>27777.777777777777</v>
       </c>
-      <c r="J18" s="68">
-        <f t="shared" ref="J18:J21" si="21">F18/D18*1000000</f>
+      <c r="J18" s="55">
+        <f t="shared" ref="J18:J21" si="24">F18/D18*1000000</f>
         <v>27777.777777777777</v>
       </c>
-      <c r="K18" s="68">
-        <f t="shared" ref="K18:K21" si="22">H18/D18*1000000</f>
+      <c r="K18" s="55">
+        <f t="shared" ref="K18:K21" si="25">H18/D18*1000000</f>
         <v>27777.777777777777</v>
       </c>
       <c r="L18" t="s">
@@ -14791,19 +14921,19 @@
         <v>0</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>50000000</v>
       </c>
-      <c r="I19" s="68">
-        <f t="shared" si="20"/>
+      <c r="I19" s="55">
+        <f t="shared" si="23"/>
         <v>250000</v>
       </c>
-      <c r="J19" s="68">
-        <f t="shared" si="21"/>
+      <c r="J19" s="55">
+        <f t="shared" si="24"/>
         <v>250000</v>
       </c>
-      <c r="K19" s="68">
-        <f t="shared" si="22"/>
+      <c r="K19" s="55">
+        <f t="shared" si="25"/>
         <v>250000</v>
       </c>
       <c r="L19" t="s">
@@ -14842,19 +14972,19 @@
         <v>0</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>200000000</v>
       </c>
-      <c r="I20" s="68">
-        <f t="shared" si="20"/>
+      <c r="I20" s="55">
+        <f t="shared" si="23"/>
         <v>555555.55555555562</v>
       </c>
-      <c r="J20" s="68">
-        <f t="shared" si="21"/>
+      <c r="J20" s="55">
+        <f t="shared" si="24"/>
         <v>555555.55555555562</v>
       </c>
-      <c r="K20" s="68">
-        <f t="shared" si="22"/>
+      <c r="K20" s="55">
+        <f t="shared" si="25"/>
         <v>555555.55555555562</v>
       </c>
       <c r="L20" t="s">
@@ -14863,7 +14993,7 @@
       <c r="R20">
         <v>1</v>
       </c>
-      <c r="S20" s="62">
+      <c r="S20" s="49">
         <v>44450</v>
       </c>
       <c r="T20" t="s">
@@ -14893,19 +15023,19 @@
         <v>0</v>
       </c>
       <c r="H21" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>56000000</v>
       </c>
-      <c r="I21" s="68">
-        <f t="shared" si="20"/>
+      <c r="I21" s="55">
+        <f t="shared" si="23"/>
         <v>900000</v>
       </c>
-      <c r="J21" s="68">
-        <f t="shared" si="21"/>
+      <c r="J21" s="55">
+        <f t="shared" si="24"/>
         <v>900000</v>
       </c>
-      <c r="K21" s="68">
-        <f t="shared" si="22"/>
+      <c r="K21" s="55">
+        <f t="shared" si="25"/>
         <v>900000</v>
       </c>
       <c r="L21" t="s">
@@ -14914,7 +15044,7 @@
       <c r="R21">
         <v>2</v>
       </c>
-      <c r="S21" s="62">
+      <c r="S21" s="49">
         <v>44456</v>
       </c>
       <c r="T21" t="s">
@@ -14928,7 +15058,7 @@
       <c r="B22" t="s">
         <v>223</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="46" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="4">
@@ -14944,19 +15074,19 @@
         <v>0</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" ref="H22:H36" si="23">F22-G22</f>
+        <f t="shared" ref="H22:H36" si="26">F22-G22</f>
         <v>61000</v>
       </c>
-      <c r="I22" s="68">
-        <f t="shared" ref="I22" si="24">E22/D22*1000000</f>
+      <c r="I22" s="55">
+        <f t="shared" ref="I22" si="27">E22/D22*1000000</f>
         <v>186.43031784841074</v>
       </c>
-      <c r="J22" s="68">
-        <f t="shared" ref="J22" si="25">F22/D22*1000000</f>
+      <c r="J22" s="55">
+        <f t="shared" ref="J22" si="28">F22/D22*1000000</f>
         <v>186.43031784841074</v>
       </c>
-      <c r="K22" s="68">
-        <f t="shared" ref="K22" si="26">H22/D22*1000000</f>
+      <c r="K22" s="55">
+        <f t="shared" ref="K22" si="29">H22/D22*1000000</f>
         <v>186.43031784841074</v>
       </c>
       <c r="L22">
@@ -14965,13 +15095,13 @@
       <c r="R22">
         <v>3</v>
       </c>
-      <c r="S22" s="62">
+      <c r="S22" s="49">
         <v>44450</v>
       </c>
       <c r="T22" t="s">
         <v>208</v>
       </c>
-      <c r="U22" s="63" t="s">
+      <c r="U22" s="50" t="s">
         <v>156</v>
       </c>
     </row>
@@ -14997,11 +15127,11 @@
         <v>0</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>103.08275034321647</v>
       </c>
-      <c r="I23" s="68">
-        <f>VLOOKUP(C23,CausesOfDeath,3,FALSE)</f>
+      <c r="I23" s="55">
+        <f t="shared" ref="I23:I36" si="30">VLOOKUP(C23,CausesOfDeath,3,FALSE)</f>
         <v>0.31708013024674403</v>
       </c>
       <c r="J23" s="11">
@@ -15018,7 +15148,7 @@
       <c r="R23">
         <v>4</v>
       </c>
-      <c r="S23" s="62">
+      <c r="S23" s="49">
         <v>44450</v>
       </c>
       <c r="T23" t="s">
@@ -15039,30 +15169,30 @@
         <v>325100000</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" ref="E24:E36" si="27">I24/1000000*D24</f>
+        <f t="shared" ref="E24:E36" si="31">I24/1000000*D24</f>
         <v>1629.7968482274014</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" ref="F24:F36" si="28">E24</f>
+        <f t="shared" ref="F24:F36" si="32">E24</f>
         <v>1629.7968482274014</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1629.7968482274014</v>
       </c>
-      <c r="I24" s="68">
-        <f>VLOOKUP(C24,CausesOfDeath,3,FALSE)</f>
+      <c r="I24" s="55">
+        <f t="shared" si="30"/>
         <v>5.0132170046982507</v>
       </c>
       <c r="J24" s="11">
-        <f t="shared" ref="J24:K36" si="29">I24</f>
+        <f t="shared" ref="J24:K36" si="33">I24</f>
         <v>5.0132170046982507</v>
       </c>
       <c r="K24" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>5.0132170046982507</v>
       </c>
       <c r="L24">
@@ -15089,30 +15219,30 @@
         <v>325100000</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3758.2014884459049</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>3758.2014884459049</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3758.2014884459049</v>
       </c>
-      <c r="I25" s="68">
-        <f>VLOOKUP(C25,CausesOfDeath,3,FALSE)</f>
+      <c r="I25" s="55">
+        <f t="shared" si="30"/>
         <v>11.5601399213962</v>
       </c>
       <c r="J25" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>11.5601399213962</v>
       </c>
       <c r="K25" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>11.5601399213962</v>
       </c>
       <c r="L25">
@@ -15121,7 +15251,7 @@
       <c r="R25">
         <v>6</v>
       </c>
-      <c r="S25" s="62">
+      <c r="S25" s="49">
         <v>44456</v>
       </c>
       <c r="T25" t="s">
@@ -15142,30 +15272,30 @@
         <v>325100000</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>4138.0398041314456</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>4138.0398041314456</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>4138.0398041314456</v>
       </c>
-      <c r="I26" s="68">
-        <f>VLOOKUP(C26,CausesOfDeath,3,FALSE)</f>
+      <c r="I26" s="55">
+        <f t="shared" si="30"/>
         <v>12.7285137008042</v>
       </c>
       <c r="J26" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12.7285137008042</v>
       </c>
       <c r="K26" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12.7285137008042</v>
       </c>
       <c r="L26">
@@ -15192,30 +15322,30 @@
         <v>325100000</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>10538.699339224408</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>10538.699339224408</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>10538.699339224408</v>
       </c>
-      <c r="I27" s="68">
-        <f>VLOOKUP(C27,CausesOfDeath,3,FALSE)</f>
+      <c r="I27" s="55">
+        <f t="shared" si="30"/>
         <v>32.416792799828997</v>
       </c>
       <c r="J27" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>32.416792799828997</v>
       </c>
       <c r="K27" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>32.416792799828997</v>
       </c>
       <c r="L27">
@@ -15242,30 +15372,30 @@
         <v>325100000</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>34460.6</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>34460.6</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>34460.6</v>
       </c>
-      <c r="I28" s="68">
-        <f>VLOOKUP(C28,CausesOfDeath,3,FALSE)</f>
+      <c r="I28" s="55">
+        <f t="shared" si="30"/>
         <v>106</v>
       </c>
       <c r="J28" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>106</v>
       </c>
       <c r="K28" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>106</v>
       </c>
       <c r="L28">
@@ -15292,30 +15422,30 @@
         <v>325100000</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>41729.044960010571</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>41729.044960010571</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
       </c>
       <c r="H29" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>41729.044960010571</v>
       </c>
-      <c r="I29" s="68">
-        <f>VLOOKUP(C29,CausesOfDeath,3,FALSE)</f>
+      <c r="I29" s="55">
+        <f t="shared" si="30"/>
         <v>128.35756677948501</v>
       </c>
       <c r="J29" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>128.35756677948501</v>
       </c>
       <c r="K29" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>128.35756677948501</v>
       </c>
       <c r="L29">
@@ -15324,7 +15454,7 @@
       <c r="R29">
         <v>10</v>
       </c>
-      <c r="S29" s="62">
+      <c r="S29" s="49">
         <v>44450</v>
       </c>
       <c r="T29" t="s">
@@ -15345,30 +15475,30 @@
         <v>325100000</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>67295.7</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>67295.7</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
       </c>
       <c r="H30" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>67295.7</v>
       </c>
-      <c r="I30" s="68">
-        <f>VLOOKUP(C30,CausesOfDeath,3,FALSE)</f>
+      <c r="I30" s="55">
+        <f t="shared" si="30"/>
         <v>207</v>
       </c>
       <c r="J30" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>207</v>
       </c>
       <c r="K30" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>207</v>
       </c>
       <c r="L30">
@@ -15377,7 +15507,7 @@
       <c r="R30">
         <v>11</v>
       </c>
-      <c r="S30" s="62">
+      <c r="S30" s="49">
         <v>44450</v>
       </c>
       <c r="T30" t="s">
@@ -15398,30 +15528,30 @@
         <v>325100000</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>71494.751021250369</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>71494.751021250369</v>
       </c>
       <c r="G31" s="7">
         <v>0</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>71494.751021250369</v>
       </c>
-      <c r="I31" s="68">
-        <f>VLOOKUP(C31,CausesOfDeath,3,FALSE)</f>
+      <c r="I31" s="55">
+        <f t="shared" si="30"/>
         <v>219.91618277837699</v>
       </c>
       <c r="J31" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>219.91618277837699</v>
       </c>
       <c r="K31" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>219.91618277837699</v>
       </c>
       <c r="L31">
@@ -15445,30 +15575,30 @@
         <v>325100000</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>125013.82658165094</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>125013.82658165094</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>125013.82658165094</v>
       </c>
-      <c r="I32" s="68">
-        <f>VLOOKUP(C32,CausesOfDeath,3,FALSE)</f>
+      <c r="I32" s="55">
+        <f t="shared" si="30"/>
         <v>384.53960806413698</v>
       </c>
       <c r="J32" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>384.53960806413698</v>
       </c>
       <c r="K32" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>384.53960806413698</v>
       </c>
       <c r="L32">
@@ -15498,30 +15628,30 @@
         <v>325100000</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>233911.33570493985</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>233911.33570493985</v>
       </c>
       <c r="G33" s="7">
         <v>0</v>
       </c>
       <c r="H33" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>233911.33570493985</v>
       </c>
-      <c r="I33" s="68">
-        <f>VLOOKUP(C33,CausesOfDeath,3,FALSE)</f>
+      <c r="I33" s="55">
+        <f t="shared" si="30"/>
         <v>719.50580038431201</v>
       </c>
       <c r="J33" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>719.50580038431201</v>
       </c>
       <c r="K33" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>719.50580038431201</v>
       </c>
       <c r="L33">
@@ -15539,30 +15669,30 @@
         <v>325100000</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>245793.48942697034</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>245793.48942697034</v>
       </c>
       <c r="G34" s="7">
         <v>0</v>
       </c>
       <c r="H34" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>245793.48942697034</v>
       </c>
-      <c r="I34" s="68">
-        <f>VLOOKUP(C34,CausesOfDeath,3,FALSE)</f>
+      <c r="I34" s="55">
+        <f t="shared" si="30"/>
         <v>756.05502745915203</v>
       </c>
       <c r="J34" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>756.05502745915203</v>
       </c>
       <c r="K34" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>756.05502745915203</v>
       </c>
       <c r="L34">
@@ -15580,30 +15710,30 @@
         <v>325100000</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>414969.42655153089</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>414969.42655153089</v>
       </c>
       <c r="G35" s="7">
         <v>0</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>414969.42655153089</v>
       </c>
-      <c r="I35" s="68">
-        <f>VLOOKUP(C35,CausesOfDeath,3,FALSE)</f>
+      <c r="I35" s="55">
+        <f t="shared" si="30"/>
         <v>1276.43625515697</v>
       </c>
       <c r="J35" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1276.43625515697</v>
       </c>
       <c r="K35" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1276.43625515697</v>
       </c>
       <c r="L35">
@@ -15621,30 +15751,30 @@
         <v>325100000</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>491191.93832677446</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>491191.93832677446</v>
       </c>
       <c r="G36" s="7">
         <v>0</v>
       </c>
       <c r="H36" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>491191.93832677446</v>
       </c>
-      <c r="I36" s="68">
-        <f>VLOOKUP(C36,CausesOfDeath,3,FALSE)</f>
+      <c r="I36" s="55">
+        <f t="shared" si="30"/>
         <v>1510.89491949177</v>
       </c>
       <c r="J36" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1510.89491949177</v>
       </c>
       <c r="K36" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1510.89491949177</v>
       </c>
       <c r="L36">
@@ -15750,22 +15880,22 @@
         <v>0</v>
       </c>
       <c r="G59" s="4">
-        <f>F59*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" ref="G59:G68" si="34">F59*TREATMENT_REDUCTION_FACTOR</f>
         <v>0</v>
       </c>
       <c r="H59" s="7">
         <f>F59-G59</f>
         <v>0</v>
       </c>
-      <c r="I59" s="68">
+      <c r="I59" s="55">
         <f>E59/D59*1000000</f>
         <v>2003.7342265009818</v>
       </c>
-      <c r="J59" s="68">
+      <c r="J59" s="55">
         <f>F59/D59*1000000</f>
         <v>0</v>
       </c>
-      <c r="K59" s="68">
+      <c r="K59" s="55">
         <f>H59/D59*1000000</f>
         <v>0</v>
       </c>
@@ -15789,27 +15919,27 @@
         <v>294649</v>
       </c>
       <c r="F60" s="4">
-        <f>E60*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" ref="F60:F68" si="35">E60*CDC_ANUALIZATION_FACTOR</f>
         <v>179748.53474131206</v>
       </c>
       <c r="G60" s="4">
-        <f>F60*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="34"/>
         <v>152786.25453011526</v>
       </c>
       <c r="H60" s="7">
         <f>F60-G60</f>
         <v>26962.280211196805</v>
       </c>
-      <c r="I60" s="68">
-        <f t="shared" ref="I60" si="30">E60/D60*1000000</f>
+      <c r="I60" s="55">
+        <f t="shared" ref="I60" si="36">E60/D60*1000000</f>
         <v>948.1835939385553</v>
       </c>
-      <c r="J60" s="68">
-        <f t="shared" ref="J60:J76" si="31">F60/D60*1000000</f>
+      <c r="J60" s="55">
+        <f t="shared" ref="J60:J76" si="37">F60/D60*1000000</f>
         <v>578.43268321360858</v>
       </c>
-      <c r="K60" s="68">
-        <f t="shared" ref="K60:K76" si="32">H60/D60*1000000</f>
+      <c r="K60" s="55">
+        <f t="shared" ref="K60:K76" si="38">H60/D60*1000000</f>
         <v>86.764902482041265</v>
       </c>
       <c r="L60" t="s">
@@ -15824,7 +15954,7 @@
         <v>51</v>
       </c>
       <c r="D61" s="4">
-        <f>VLOOKUP(C61,AGE_POP,3,FALSE)</f>
+        <f t="shared" ref="D61:D68" si="39">VLOOKUP(C61,AGE_POP,3,FALSE)</f>
         <v>74660000</v>
       </c>
       <c r="E61" s="4">
@@ -15832,27 +15962,27 @@
         <v>439</v>
       </c>
       <c r="F61" s="4">
-        <f>E61*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="35"/>
         <v>267.80883950543188</v>
       </c>
       <c r="G61" s="4">
-        <f>F61*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="34"/>
         <v>227.63751357961709</v>
       </c>
       <c r="H61" s="7">
-        <f t="shared" ref="H61:H90" si="33">F61-G61</f>
+        <f t="shared" ref="H61:H90" si="40">F61-G61</f>
         <v>40.171325925814784</v>
       </c>
-      <c r="I61" s="68">
+      <c r="I61" s="55">
         <f>E61/D61*1000000</f>
         <v>5.8799892847575679</v>
       </c>
-      <c r="J61" s="68">
-        <f t="shared" si="31"/>
+      <c r="J61" s="55">
+        <f t="shared" si="37"/>
         <v>3.5870458010371267</v>
       </c>
-      <c r="K61" s="68">
-        <f t="shared" si="32"/>
+      <c r="K61" s="55">
+        <f t="shared" si="38"/>
         <v>0.53805687015556902</v>
       </c>
       <c r="L61" t="s">
@@ -15867,7 +15997,7 @@
         <v>52</v>
       </c>
       <c r="D62" s="4">
-        <f>VLOOKUP(C62,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>53184000</v>
       </c>
       <c r="E62" s="4">
@@ -15875,27 +16005,27 @@
         <v>3212</v>
       </c>
       <c r="F62" s="4">
-        <f>E62*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="35"/>
         <v>1959.4578416661666</v>
       </c>
       <c r="G62" s="4">
-        <f>F62*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="34"/>
         <v>1665.5391654162415</v>
       </c>
       <c r="H62" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>293.91867624992506</v>
       </c>
-      <c r="I62" s="68">
-        <f t="shared" ref="I62:I76" si="34">E62/D62*1000000</f>
+      <c r="I62" s="55">
+        <f t="shared" ref="I62:I76" si="41">E62/D62*1000000</f>
         <v>60.394103489771354</v>
       </c>
-      <c r="J62" s="68">
-        <f t="shared" si="31"/>
+      <c r="J62" s="55">
+        <f t="shared" si="37"/>
         <v>36.842994917008248</v>
       </c>
-      <c r="K62" s="68">
-        <f t="shared" si="32"/>
+      <c r="K62" s="55">
+        <f t="shared" si="38"/>
         <v>5.5264492375512377</v>
       </c>
       <c r="L62" t="s">
@@ -15910,7 +16040,7 @@
         <v>53</v>
       </c>
       <c r="D63" s="4">
-        <f>VLOOKUP(C63,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>45194000</v>
       </c>
       <c r="E63" s="4">
@@ -15918,27 +16048,27 @@
         <v>9240</v>
       </c>
       <c r="F63" s="4">
-        <f>E63*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="35"/>
         <v>5636.7965308204793</v>
       </c>
       <c r="G63" s="4">
-        <f>F63*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="34"/>
         <v>4791.2770511974077</v>
       </c>
       <c r="H63" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>845.51947962307167</v>
       </c>
-      <c r="I63" s="68">
-        <f t="shared" si="34"/>
+      <c r="I63" s="55">
+        <f t="shared" si="41"/>
         <v>204.45191839624729</v>
       </c>
-      <c r="J63" s="68">
-        <f t="shared" si="31"/>
+      <c r="J63" s="55">
+        <f t="shared" si="37"/>
         <v>124.72444419216002</v>
       </c>
-      <c r="K63" s="68">
-        <f t="shared" si="32"/>
+      <c r="K63" s="55">
+        <f t="shared" si="38"/>
         <v>18.708666628823995</v>
       </c>
       <c r="L63" t="s">
@@ -15953,7 +16083,7 @@
         <v>54</v>
       </c>
       <c r="D64" s="4">
-        <f>VLOOKUP(C64,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>41153000</v>
       </c>
       <c r="E64" s="4">
@@ -15961,27 +16091,27 @@
         <v>23501</v>
       </c>
       <c r="F64" s="4">
-        <f>E64*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="35"/>
         <v>14336.618535802172</v>
       </c>
       <c r="G64" s="4">
-        <f>F64*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="34"/>
         <v>12186.125755431845</v>
       </c>
       <c r="H64" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>2150.4927803703267</v>
       </c>
-      <c r="I64" s="68">
-        <f t="shared" si="34"/>
+      <c r="I64" s="55">
+        <f t="shared" si="41"/>
         <v>571.0640779530047</v>
       </c>
-      <c r="J64" s="68">
-        <f t="shared" si="31"/>
+      <c r="J64" s="55">
+        <f t="shared" si="37"/>
         <v>348.37359453265066</v>
       </c>
-      <c r="K64" s="68">
-        <f t="shared" si="32"/>
+      <c r="K64" s="55">
+        <f t="shared" si="38"/>
         <v>52.25603917989762</v>
       </c>
       <c r="L64" t="s">
@@ -15996,7 +16126,7 @@
         <v>55</v>
       </c>
       <c r="D65" s="4">
-        <f>VLOOKUP(C65,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>64105000</v>
       </c>
       <c r="E65" s="4">
@@ -16004,27 +16134,27 @@
         <v>110689</v>
       </c>
       <c r="F65" s="4">
-        <f>E65*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="35"/>
         <v>67525.040173158879</v>
       </c>
       <c r="G65" s="4">
-        <f>F65*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="34"/>
         <v>57396.284147185048</v>
       </c>
       <c r="H65" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>10128.756025973831</v>
       </c>
-      <c r="I65" s="68">
-        <f t="shared" si="34"/>
+      <c r="I65" s="55">
+        <f t="shared" si="41"/>
         <v>1726.68278605413</v>
       </c>
-      <c r="J65" s="68">
-        <f t="shared" si="31"/>
+      <c r="J65" s="55">
+        <f t="shared" si="37"/>
         <v>1053.350599378502</v>
       </c>
-      <c r="K65" s="68">
-        <f t="shared" si="32"/>
+      <c r="K65" s="55">
+        <f t="shared" si="38"/>
         <v>158.00258990677531</v>
       </c>
       <c r="L65" t="s">
@@ -16039,7 +16169,7 @@
         <v>56</v>
       </c>
       <c r="D66" s="4">
-        <f>VLOOKUP(C66,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>32455000</v>
       </c>
       <c r="E66" s="4">
@@ -16047,27 +16177,27 @@
         <v>147568</v>
       </c>
       <c r="F66" s="4">
-        <f>E66*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="35"/>
         <v>90022.812820358929</v>
       </c>
       <c r="G66" s="4">
-        <f>F66*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="34"/>
         <v>76519.390897305086</v>
       </c>
       <c r="H66" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>13503.421923053844</v>
       </c>
-      <c r="I66" s="68">
-        <f t="shared" si="34"/>
+      <c r="I66" s="55">
+        <f t="shared" si="41"/>
         <v>4546.8494839007853</v>
       </c>
-      <c r="J66" s="68">
-        <f t="shared" si="31"/>
+      <c r="J66" s="55">
+        <f t="shared" si="37"/>
         <v>2773.7733113652421</v>
       </c>
-      <c r="K66" s="68">
-        <f t="shared" si="32"/>
+      <c r="K66" s="55">
+        <f t="shared" si="38"/>
         <v>416.06599670478641</v>
       </c>
       <c r="L66" t="s">
@@ -16082,7 +16212,7 @@
         <v>57</v>
       </c>
       <c r="D67" s="4">
-        <f>VLOOKUP(C67,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>15785000</v>
       </c>
       <c r="E67" s="4">
@@ -16090,27 +16220,27 @@
         <v>176763</v>
       </c>
       <c r="F67" s="4">
-        <f>E67*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="35"/>
         <v>107833.01571184203</v>
       </c>
       <c r="G67" s="4">
-        <f>F67*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="34"/>
         <v>91658.063355065722</v>
       </c>
       <c r="H67" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>16174.95235677631</v>
       </c>
-      <c r="I67" s="68">
-        <f t="shared" si="34"/>
+      <c r="I67" s="55">
+        <f t="shared" si="41"/>
         <v>11198.16281279696</v>
       </c>
-      <c r="J67" s="68">
-        <f t="shared" si="31"/>
+      <c r="J67" s="55">
+        <f t="shared" si="37"/>
         <v>6831.3598803827708</v>
       </c>
-      <c r="K67" s="68">
-        <f t="shared" si="32"/>
+      <c r="K67" s="55">
+        <f t="shared" si="38"/>
         <v>1024.7039820574159</v>
       </c>
       <c r="L67" t="s">
@@ -16125,7 +16255,7 @@
         <v>58</v>
       </c>
       <c r="D68" s="4">
-        <f>VLOOKUP(C68,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>6063000</v>
       </c>
       <c r="E68" s="4">
@@ -16133,27 +16263,27 @@
         <v>187342</v>
       </c>
       <c r="F68" s="4">
-        <f>E68*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="35"/>
         <v>114286.65970529981</v>
       </c>
       <c r="G68" s="4">
-        <f>F68*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="34"/>
         <v>97143.660749504837</v>
       </c>
       <c r="H68" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>17142.998955794974</v>
       </c>
-      <c r="I68" s="68">
-        <f t="shared" si="34"/>
+      <c r="I68" s="55">
+        <f t="shared" si="41"/>
         <v>30899.22480620155</v>
       </c>
-      <c r="J68" s="68">
-        <f t="shared" si="31"/>
+      <c r="J68" s="55">
+        <f t="shared" si="37"/>
         <v>18849.853159376515</v>
       </c>
-      <c r="K68" s="68">
-        <f t="shared" si="32"/>
+      <c r="K68" s="55">
+        <f t="shared" si="38"/>
         <v>2827.4779739064779</v>
       </c>
       <c r="L68" t="s">
@@ -16181,19 +16311,19 @@
         <v>0</v>
       </c>
       <c r="H69" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>18132.5</v>
       </c>
-      <c r="I69" s="68">
-        <f t="shared" si="34"/>
+      <c r="I69" s="55">
+        <f t="shared" si="41"/>
         <v>80.550339733801721</v>
       </c>
-      <c r="J69" s="68">
-        <f t="shared" si="31"/>
+      <c r="J69" s="55">
+        <f t="shared" si="37"/>
         <v>100.68792466725216</v>
       </c>
-      <c r="K69" s="68">
-        <f t="shared" si="32"/>
+      <c r="K69" s="55">
+        <f t="shared" si="38"/>
         <v>100.68792466725216</v>
       </c>
       <c r="L69" t="s">
@@ -16215,26 +16345,26 @@
         <v>72530</v>
       </c>
       <c r="F70" s="4">
-        <f t="shared" ref="F70" si="35">E70+3/12*E70</f>
+        <f t="shared" ref="F70" si="42">E70+3/12*E70</f>
         <v>90662.5</v>
       </c>
       <c r="G70" s="7">
         <v>0</v>
       </c>
       <c r="H70" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>90662.5</v>
       </c>
-      <c r="I70" s="68">
-        <f t="shared" si="34"/>
+      <c r="I70" s="55">
+        <f t="shared" si="41"/>
         <v>402.75169866900865</v>
       </c>
-      <c r="J70" s="68">
-        <f t="shared" si="31"/>
+      <c r="J70" s="55">
+        <f t="shared" si="37"/>
         <v>503.43962333626081</v>
       </c>
-      <c r="K70" s="68">
-        <f t="shared" si="32"/>
+      <c r="K70" s="55">
+        <f t="shared" si="38"/>
         <v>503.43962333626081</v>
       </c>
       <c r="L70" t="s">
@@ -16263,19 +16393,19 @@
         <v>0</v>
       </c>
       <c r="H71" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>181325</v>
       </c>
-      <c r="I71" s="68">
-        <f t="shared" si="34"/>
+      <c r="I71" s="55">
+        <f t="shared" si="41"/>
         <v>805.50339733801729</v>
       </c>
-      <c r="J71" s="68">
-        <f t="shared" si="31"/>
+      <c r="J71" s="55">
+        <f t="shared" si="37"/>
         <v>1006.8792466725216</v>
       </c>
-      <c r="K71" s="68">
-        <f t="shared" si="32"/>
+      <c r="K71" s="55">
+        <f t="shared" si="38"/>
         <v>1006.8792466725216</v>
       </c>
       <c r="L71" t="s">
@@ -16302,19 +16432,19 @@
         <v>0</v>
       </c>
       <c r="H72" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>50000000</v>
       </c>
-      <c r="I72" s="68">
-        <f t="shared" si="34"/>
+      <c r="I72" s="55">
+        <f t="shared" si="41"/>
         <v>27777.777777777777</v>
       </c>
-      <c r="J72" s="68">
-        <f t="shared" si="31"/>
+      <c r="J72" s="55">
+        <f t="shared" si="37"/>
         <v>27777.777777777777</v>
       </c>
-      <c r="K72" s="68">
-        <f t="shared" si="32"/>
+      <c r="K72" s="55">
+        <f t="shared" si="38"/>
         <v>27777.777777777777</v>
       </c>
       <c r="L72" t="s">
@@ -16341,19 +16471,19 @@
         <v>0</v>
       </c>
       <c r="H73" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>50000000</v>
       </c>
-      <c r="I73" s="68">
-        <f t="shared" si="34"/>
+      <c r="I73" s="55">
+        <f t="shared" si="41"/>
         <v>250000</v>
       </c>
-      <c r="J73" s="68">
-        <f t="shared" si="31"/>
+      <c r="J73" s="55">
+        <f t="shared" si="37"/>
         <v>250000</v>
       </c>
-      <c r="K73" s="68">
-        <f t="shared" si="32"/>
+      <c r="K73" s="55">
+        <f t="shared" si="38"/>
         <v>250000</v>
       </c>
       <c r="L73" t="s">
@@ -16380,19 +16510,19 @@
         <v>0</v>
       </c>
       <c r="H74" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>200000000</v>
       </c>
-      <c r="I74" s="68">
-        <f t="shared" si="34"/>
+      <c r="I74" s="55">
+        <f t="shared" si="41"/>
         <v>555555.55555555562</v>
       </c>
-      <c r="J74" s="68">
-        <f t="shared" si="31"/>
+      <c r="J74" s="55">
+        <f t="shared" si="37"/>
         <v>555555.55555555562</v>
       </c>
-      <c r="K74" s="68">
-        <f t="shared" si="32"/>
+      <c r="K74" s="55">
+        <f t="shared" si="38"/>
         <v>555555.55555555562</v>
       </c>
       <c r="L74" t="s">
@@ -16419,19 +16549,19 @@
         <v>0</v>
       </c>
       <c r="H75" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>56000000</v>
       </c>
-      <c r="I75" s="68">
-        <f t="shared" si="34"/>
+      <c r="I75" s="55">
+        <f t="shared" si="41"/>
         <v>900000</v>
       </c>
-      <c r="J75" s="68">
-        <f t="shared" si="31"/>
+      <c r="J75" s="55">
+        <f t="shared" si="37"/>
         <v>900000</v>
       </c>
-      <c r="K75" s="68">
-        <f t="shared" si="32"/>
+      <c r="K75" s="55">
+        <f t="shared" si="38"/>
         <v>900000</v>
       </c>
       <c r="L75" t="s">
@@ -16442,7 +16572,7 @@
       <c r="B76" t="s">
         <v>223</v>
       </c>
-      <c r="C76" s="59" t="s">
+      <c r="C76" s="46" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="4">
@@ -16458,19 +16588,19 @@
         <v>0</v>
       </c>
       <c r="H76" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>61000</v>
       </c>
-      <c r="I76" s="68">
-        <f t="shared" si="34"/>
+      <c r="I76" s="55">
+        <f t="shared" si="41"/>
         <v>186.43031784841074</v>
       </c>
-      <c r="J76" s="68">
-        <f t="shared" si="31"/>
+      <c r="J76" s="55">
+        <f t="shared" si="37"/>
         <v>186.43031784841074</v>
       </c>
-      <c r="K76" s="68">
-        <f t="shared" si="32"/>
+      <c r="K76" s="55">
+        <f t="shared" si="38"/>
         <v>186.43031784841074</v>
       </c>
       <c r="L76">
@@ -16499,11 +16629,11 @@
         <v>0</v>
       </c>
       <c r="H77" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>103.08275034321647</v>
       </c>
-      <c r="I77" s="68">
-        <f>VLOOKUP(C77,CausesOfDeath,3,FALSE)</f>
+      <c r="I77" s="55">
+        <f t="shared" ref="I77:I90" si="43">VLOOKUP(C77,CausesOfDeath,3,FALSE)</f>
         <v>0.31708013024674403</v>
       </c>
       <c r="J77" s="11">
@@ -16529,30 +16659,30 @@
         <v>325100000</v>
       </c>
       <c r="E78" s="4">
-        <f t="shared" ref="E78:E90" si="36">I78/1000000*D78</f>
+        <f t="shared" ref="E78:E90" si="44">I78/1000000*D78</f>
         <v>1629.7968482274014</v>
       </c>
       <c r="F78" s="4">
-        <f t="shared" ref="F78:F90" si="37">E78</f>
+        <f t="shared" ref="F78:F90" si="45">E78</f>
         <v>1629.7968482274014</v>
       </c>
       <c r="G78" s="7">
         <v>0</v>
       </c>
       <c r="H78" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1629.7968482274014</v>
       </c>
-      <c r="I78" s="68">
-        <f>VLOOKUP(C78,CausesOfDeath,3,FALSE)</f>
+      <c r="I78" s="55">
+        <f t="shared" si="43"/>
         <v>5.0132170046982507</v>
       </c>
       <c r="J78" s="11">
-        <f t="shared" ref="J78:K78" si="38">I78</f>
+        <f t="shared" ref="J78:K78" si="46">I78</f>
         <v>5.0132170046982507</v>
       </c>
       <c r="K78" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>5.0132170046982507</v>
       </c>
       <c r="L78">
@@ -16570,30 +16700,30 @@
         <v>325100000</v>
       </c>
       <c r="E79" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>3758.2014884459049</v>
       </c>
       <c r="F79" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>3758.2014884459049</v>
       </c>
       <c r="G79" s="7">
         <v>0</v>
       </c>
       <c r="H79" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>3758.2014884459049</v>
       </c>
-      <c r="I79" s="68">
-        <f>VLOOKUP(C79,CausesOfDeath,3,FALSE)</f>
+      <c r="I79" s="55">
+        <f t="shared" si="43"/>
         <v>11.5601399213962</v>
       </c>
       <c r="J79" s="11">
-        <f t="shared" ref="J79:K79" si="39">I79</f>
+        <f t="shared" ref="J79:K79" si="47">I79</f>
         <v>11.5601399213962</v>
       </c>
       <c r="K79" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>11.5601399213962</v>
       </c>
       <c r="L79">
@@ -16611,30 +16741,30 @@
         <v>325100000</v>
       </c>
       <c r="E80" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>4138.0398041314456</v>
       </c>
       <c r="F80" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>4138.0398041314456</v>
       </c>
       <c r="G80" s="7">
         <v>0</v>
       </c>
       <c r="H80" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>4138.0398041314456</v>
       </c>
-      <c r="I80" s="68">
-        <f>VLOOKUP(C80,CausesOfDeath,3,FALSE)</f>
+      <c r="I80" s="55">
+        <f t="shared" si="43"/>
         <v>12.7285137008042</v>
       </c>
       <c r="J80" s="11">
-        <f t="shared" ref="J80:K80" si="40">I80</f>
+        <f t="shared" ref="J80:K80" si="48">I80</f>
         <v>12.7285137008042</v>
       </c>
       <c r="K80" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>12.7285137008042</v>
       </c>
       <c r="L80">
@@ -16652,30 +16782,30 @@
         <v>325100000</v>
       </c>
       <c r="E81" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>10538.699339224408</v>
       </c>
       <c r="F81" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>10538.699339224408</v>
       </c>
       <c r="G81" s="7">
         <v>0</v>
       </c>
       <c r="H81" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>10538.699339224408</v>
       </c>
-      <c r="I81" s="68">
-        <f>VLOOKUP(C81,CausesOfDeath,3,FALSE)</f>
+      <c r="I81" s="55">
+        <f t="shared" si="43"/>
         <v>32.416792799828997</v>
       </c>
       <c r="J81" s="11">
-        <f t="shared" ref="J81:K81" si="41">I81</f>
+        <f t="shared" ref="J81:K81" si="49">I81</f>
         <v>32.416792799828997</v>
       </c>
       <c r="K81" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>32.416792799828997</v>
       </c>
       <c r="L81">
@@ -16693,30 +16823,30 @@
         <v>325100000</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>34460.6</v>
       </c>
       <c r="F82" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>34460.6</v>
       </c>
       <c r="G82" s="7">
         <v>0</v>
       </c>
       <c r="H82" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>34460.6</v>
       </c>
-      <c r="I82" s="68">
-        <f>VLOOKUP(C82,CausesOfDeath,3,FALSE)</f>
+      <c r="I82" s="55">
+        <f t="shared" si="43"/>
         <v>106</v>
       </c>
       <c r="J82" s="11">
-        <f t="shared" ref="J82:K82" si="42">I82</f>
+        <f t="shared" ref="J82:K82" si="50">I82</f>
         <v>106</v>
       </c>
       <c r="K82" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>106</v>
       </c>
       <c r="L82">
@@ -16734,30 +16864,30 @@
         <v>325100000</v>
       </c>
       <c r="E83" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>41729.044960010571</v>
       </c>
       <c r="F83" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>41729.044960010571</v>
       </c>
       <c r="G83" s="7">
         <v>0</v>
       </c>
       <c r="H83" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>41729.044960010571</v>
       </c>
-      <c r="I83" s="68">
-        <f>VLOOKUP(C83,CausesOfDeath,3,FALSE)</f>
+      <c r="I83" s="55">
+        <f t="shared" si="43"/>
         <v>128.35756677948501</v>
       </c>
       <c r="J83" s="11">
-        <f t="shared" ref="J83:K83" si="43">I83</f>
+        <f t="shared" ref="J83:K83" si="51">I83</f>
         <v>128.35756677948501</v>
       </c>
       <c r="K83" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>128.35756677948501</v>
       </c>
       <c r="L83">
@@ -16775,30 +16905,30 @@
         <v>325100000</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>67295.7</v>
       </c>
       <c r="F84" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>67295.7</v>
       </c>
       <c r="G84" s="7">
         <v>0</v>
       </c>
       <c r="H84" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>67295.7</v>
       </c>
-      <c r="I84" s="68">
-        <f>VLOOKUP(C84,CausesOfDeath,3,FALSE)</f>
+      <c r="I84" s="55">
+        <f t="shared" si="43"/>
         <v>207</v>
       </c>
       <c r="J84" s="11">
-        <f t="shared" ref="J84:K84" si="44">I84</f>
+        <f t="shared" ref="J84:K84" si="52">I84</f>
         <v>207</v>
       </c>
       <c r="K84" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>207</v>
       </c>
       <c r="L84">
@@ -16816,30 +16946,30 @@
         <v>325100000</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>71494.751021250369</v>
       </c>
       <c r="F85" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>71494.751021250369</v>
       </c>
       <c r="G85" s="7">
         <v>0</v>
       </c>
       <c r="H85" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>71494.751021250369</v>
       </c>
-      <c r="I85" s="68">
-        <f>VLOOKUP(C85,CausesOfDeath,3,FALSE)</f>
+      <c r="I85" s="55">
+        <f t="shared" si="43"/>
         <v>219.91618277837699</v>
       </c>
       <c r="J85" s="11">
-        <f t="shared" ref="J85:K85" si="45">I85</f>
+        <f t="shared" ref="J85:K85" si="53">I85</f>
         <v>219.91618277837699</v>
       </c>
       <c r="K85" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>219.91618277837699</v>
       </c>
       <c r="L85">
@@ -16857,30 +16987,30 @@
         <v>325100000</v>
       </c>
       <c r="E86" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>125013.82658165094</v>
       </c>
       <c r="F86" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>125013.82658165094</v>
       </c>
       <c r="G86" s="7">
         <v>0</v>
       </c>
       <c r="H86" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>125013.82658165094</v>
       </c>
-      <c r="I86" s="68">
-        <f>VLOOKUP(C86,CausesOfDeath,3,FALSE)</f>
+      <c r="I86" s="55">
+        <f t="shared" si="43"/>
         <v>384.53960806413698</v>
       </c>
       <c r="J86" s="11">
-        <f t="shared" ref="J86:K86" si="46">I86</f>
+        <f t="shared" ref="J86:K86" si="54">I86</f>
         <v>384.53960806413698</v>
       </c>
       <c r="K86" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>384.53960806413698</v>
       </c>
       <c r="L86">
@@ -16898,30 +17028,30 @@
         <v>325100000</v>
       </c>
       <c r="E87" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>233911.33570493985</v>
       </c>
       <c r="F87" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>233911.33570493985</v>
       </c>
       <c r="G87" s="7">
         <v>0</v>
       </c>
       <c r="H87" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>233911.33570493985</v>
       </c>
-      <c r="I87" s="68">
-        <f>VLOOKUP(C87,CausesOfDeath,3,FALSE)</f>
+      <c r="I87" s="55">
+        <f t="shared" si="43"/>
         <v>719.50580038431201</v>
       </c>
       <c r="J87" s="11">
-        <f t="shared" ref="J87:K87" si="47">I87</f>
+        <f t="shared" ref="J87:K87" si="55">I87</f>
         <v>719.50580038431201</v>
       </c>
       <c r="K87" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>719.50580038431201</v>
       </c>
       <c r="L87">
@@ -16939,30 +17069,30 @@
         <v>325100000</v>
       </c>
       <c r="E88" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>245793.48942697034</v>
       </c>
       <c r="F88" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>245793.48942697034</v>
       </c>
       <c r="G88" s="7">
         <v>0</v>
       </c>
       <c r="H88" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>245793.48942697034</v>
       </c>
-      <c r="I88" s="68">
-        <f>VLOOKUP(C88,CausesOfDeath,3,FALSE)</f>
+      <c r="I88" s="55">
+        <f t="shared" si="43"/>
         <v>756.05502745915203</v>
       </c>
       <c r="J88" s="11">
-        <f t="shared" ref="J88:K88" si="48">I88</f>
+        <f t="shared" ref="J88:K88" si="56">I88</f>
         <v>756.05502745915203</v>
       </c>
       <c r="K88" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>756.05502745915203</v>
       </c>
       <c r="L88">
@@ -16980,30 +17110,30 @@
         <v>325100000</v>
       </c>
       <c r="E89" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>414969.42655153089</v>
       </c>
       <c r="F89" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>414969.42655153089</v>
       </c>
       <c r="G89" s="7">
         <v>0</v>
       </c>
       <c r="H89" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>414969.42655153089</v>
       </c>
-      <c r="I89" s="68">
-        <f>VLOOKUP(C89,CausesOfDeath,3,FALSE)</f>
+      <c r="I89" s="55">
+        <f t="shared" si="43"/>
         <v>1276.43625515697</v>
       </c>
       <c r="J89" s="11">
-        <f t="shared" ref="J89:K89" si="49">I89</f>
+        <f t="shared" ref="J89:K89" si="57">I89</f>
         <v>1276.43625515697</v>
       </c>
       <c r="K89" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>1276.43625515697</v>
       </c>
       <c r="L89">
@@ -17021,30 +17151,30 @@
         <v>325100000</v>
       </c>
       <c r="E90" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>491191.93832677446</v>
       </c>
       <c r="F90" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>491191.93832677446</v>
       </c>
       <c r="G90" s="7">
         <v>0</v>
       </c>
       <c r="H90" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>491191.93832677446</v>
       </c>
-      <c r="I90" s="68">
-        <f>VLOOKUP(C90,CausesOfDeath,3,FALSE)</f>
+      <c r="I90" s="55">
+        <f t="shared" si="43"/>
         <v>1510.89491949177</v>
       </c>
       <c r="J90" s="11">
-        <f t="shared" ref="J90:K90" si="50">I90</f>
+        <f t="shared" ref="J90:K90" si="58">I90</f>
         <v>1510.89491949177</v>
       </c>
       <c r="K90" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>1510.89491949177</v>
       </c>
       <c r="L90">
@@ -17146,73 +17276,73 @@
       </c>
     </row>
     <row r="117" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C117" s="82" t="s">
+      <c r="C117" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="D117" s="82" t="s">
+      <c r="D117" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="E117" s="82" t="s">
+      <c r="E117" s="69" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="118" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C118" s="58" t="s">
+      <c r="C118" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="D118" s="57" t="s">
+      <c r="D118" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="E118" s="85">
+      <c r="E118" s="72">
         <v>0.31708013024674403</v>
       </c>
     </row>
     <row r="119" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C119" s="60" t="s">
+      <c r="C119" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D119" s="59" t="s">
+      <c r="D119" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="E119" s="86">
+      <c r="E119" s="73">
         <v>5.0132170046982507</v>
       </c>
     </row>
     <row r="120" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C120" s="58" t="s">
+      <c r="C120" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="D120" s="57" t="s">
+      <c r="D120" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="E120" s="85">
+      <c r="E120" s="72">
         <v>11.5601399213962</v>
       </c>
     </row>
     <row r="121" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C121" s="60" t="s">
+      <c r="C121" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D121" s="59" t="s">
+      <c r="D121" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="E121" s="86">
+      <c r="E121" s="73">
         <v>12.7285137008042</v>
       </c>
     </row>
     <row r="122" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="58" t="s">
+      <c r="C122" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="D122" s="57" t="s">
+      <c r="D122" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="E122" s="85">
+      <c r="E122" s="72">
         <v>32.416792799828997</v>
       </c>
     </row>
     <row r="123" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="58" t="s">
+      <c r="C123" s="45" t="s">
         <v>161</v>
       </c>
       <c r="D123" t="s">
@@ -17224,200 +17354,200 @@
       </c>
     </row>
     <row r="124" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="58" t="s">
+      <c r="C124" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="D124" s="58" t="s">
+      <c r="D124" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="E124" s="74">
+      <c r="E124" s="61">
         <v>100.68792466725216</v>
       </c>
     </row>
     <row r="125" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="60" t="s">
+      <c r="C125" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D125" s="60" t="s">
+      <c r="D125" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="E125" s="79">
+      <c r="E125" s="66">
         <v>106</v>
       </c>
     </row>
     <row r="126" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="58" t="s">
+      <c r="C126" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="D126" s="58" t="s">
+      <c r="D126" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E126" s="78">
+      <c r="E126" s="65">
         <v>128.35756677948501</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C127" s="60" t="s">
+      <c r="C127" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="D127" s="59" t="s">
+      <c r="D127" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E127" s="76">
+      <c r="E127" s="63">
         <f>$K$4</f>
         <v>183.35458014004848</v>
       </c>
     </row>
     <row r="128" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="60" t="s">
+      <c r="C128" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D128" s="60" t="s">
+      <c r="D128" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E128" s="77">
+      <c r="E128" s="64">
         <v>186.43031784841074</v>
       </c>
     </row>
     <row r="129" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="60" t="s">
+      <c r="C129" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D129" s="60" t="s">
+      <c r="D129" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E129" s="79">
+      <c r="E129" s="66">
         <v>207</v>
       </c>
     </row>
     <row r="130" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C130" s="58" t="s">
+      <c r="C130" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="D130" s="58" t="s">
+      <c r="D130" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E130" s="78">
+      <c r="E130" s="65">
         <v>219.91618277837699</v>
       </c>
     </row>
     <row r="131" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C131" s="60" t="s">
+      <c r="C131" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="D131" s="71" t="s">
+      <c r="D131" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="E131" s="88">
+      <c r="E131" s="75">
         <f>$J$6</f>
         <v>322.41110875094552</v>
       </c>
     </row>
     <row r="132" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C132" s="60" t="s">
+      <c r="C132" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D132" s="60" t="s">
+      <c r="D132" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E132" s="79">
+      <c r="E132" s="66">
         <v>384.53960806413698</v>
       </c>
     </row>
     <row r="133" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C133" s="60" t="s">
+      <c r="C133" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="D133" s="70" t="s">
+      <c r="D133" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="E133" s="89">
+      <c r="E133" s="76">
         <v>503.43962333626081</v>
       </c>
     </row>
     <row r="134" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="58" t="s">
+      <c r="C134" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="D134" s="58" t="s">
+      <c r="D134" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E134" s="78">
+      <c r="E134" s="65">
         <v>719.50580038431201</v>
       </c>
     </row>
     <row r="135" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C135" s="60" t="s">
+      <c r="C135" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D135" s="60" t="s">
+      <c r="D135" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="E135" s="79">
+      <c r="E135" s="66">
         <v>756.05502745915203</v>
       </c>
     </row>
     <row r="136" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C136" s="58" t="s">
+      <c r="C136" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="D136" s="58" t="s">
+      <c r="D136" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="E136" s="74">
+      <c r="E136" s="61">
         <v>1006.8792466725216</v>
       </c>
     </row>
     <row r="137" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C137" s="60" t="s">
+      <c r="C137" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="D137" s="58" t="s">
+      <c r="D137" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="E137" s="73">
+      <c r="E137" s="60">
         <f>$J$4</f>
         <v>1222.3638676003236</v>
       </c>
     </row>
     <row r="138" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="58" t="s">
+      <c r="C138" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="D138" s="58" t="s">
+      <c r="D138" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E138" s="78">
+      <c r="E138" s="65">
         <v>1276.43625515697</v>
       </c>
     </row>
     <row r="139" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C139" s="60" t="s">
+      <c r="C139" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D139" s="60" t="s">
+      <c r="D139" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E139" s="79">
+      <c r="E139" s="66">
         <v>1510.89491949177</v>
       </c>
     </row>
     <row r="140" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C140" s="83" t="s">
+      <c r="C140" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="D140" s="83" t="s">
+      <c r="D140" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="E140" s="87">
+      <c r="E140" s="74">
         <f>$I$4</f>
         <v>2003.7342265009818</v>
       </c>
     </row>
     <row r="141" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C141" s="83"/>
-      <c r="D141" s="83"/>
-      <c r="E141" s="84"/>
+      <c r="C141" s="70"/>
+      <c r="D141" s="70"/>
+      <c r="E141" s="71"/>
     </row>
     <row r="142" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
@@ -17426,40 +17556,40 @@
       <c r="D142" t="s">
         <v>164</v>
       </c>
-      <c r="E142" s="87">
+      <c r="E142" s="74">
         <v>27777.777777777777</v>
       </c>
     </row>
     <row r="143" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C143" s="60" t="s">
+      <c r="C143" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="D143" s="60" t="s">
+      <c r="D143" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="E143" s="76">
+      <c r="E143" s="63">
         <v>250000</v>
       </c>
     </row>
     <row r="144" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C144" s="60" t="s">
+      <c r="C144" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="D144" s="60" t="s">
+      <c r="D144" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="E144" s="76">
+      <c r="E144" s="63">
         <v>555555.55555555562</v>
       </c>
     </row>
     <row r="145" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C145" s="83" t="s">
+      <c r="C145" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="D145" s="83" t="s">
+      <c r="D145" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="E145" s="87">
+      <c r="E145" s="74">
         <v>900000</v>
       </c>
     </row>
@@ -17580,7 +17710,7 @@
       </c>
     </row>
     <row r="179" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C179" s="70" t="s">
+      <c r="C179" s="57" t="s">
         <v>21</v>
       </c>
       <c r="D179" s="7">
@@ -17598,7 +17728,7 @@
       </c>
     </row>
     <row r="181" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C181" s="80" t="s">
+      <c r="C181" s="67" t="s">
         <v>238</v>
       </c>
       <c r="D181" s="7">
@@ -17625,73 +17755,73 @@
       </c>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C191" s="82" t="s">
+      <c r="C191" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="D191" s="82" t="s">
+      <c r="D191" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="E191" s="82" t="s">
+      <c r="E191" s="69" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="192" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C192" s="58" t="s">
+      <c r="C192" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="D192" s="57" t="s">
+      <c r="D192" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="E192" s="85">
+      <c r="E192" s="72">
         <v>0.31708013024674403</v>
       </c>
     </row>
     <row r="193" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C193" s="60" t="s">
+      <c r="C193" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D193" s="59" t="s">
+      <c r="D193" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="E193" s="86">
+      <c r="E193" s="73">
         <v>5.0132170046982507</v>
       </c>
     </row>
     <row r="194" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C194" s="58" t="s">
+      <c r="C194" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="D194" s="57" t="s">
+      <c r="D194" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="E194" s="85">
+      <c r="E194" s="72">
         <v>11.5601399213962</v>
       </c>
     </row>
     <row r="195" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C195" s="60" t="s">
+      <c r="C195" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D195" s="59" t="s">
+      <c r="D195" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="E195" s="86">
+      <c r="E195" s="73">
         <v>12.7285137008042</v>
       </c>
     </row>
     <row r="196" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C196" s="58" t="s">
+      <c r="C196" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="D196" s="57" t="s">
+      <c r="D196" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="E196" s="85">
+      <c r="E196" s="72">
         <v>32.416792799828997</v>
       </c>
     </row>
     <row r="197" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C197" s="58" t="s">
+      <c r="C197" s="45" t="s">
         <v>161</v>
       </c>
       <c r="D197" t="s">
@@ -17703,200 +17833,200 @@
       </c>
     </row>
     <row r="198" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C198" s="58" t="s">
+      <c r="C198" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="D198" s="58" t="s">
+      <c r="D198" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="E198" s="74">
+      <c r="E198" s="61">
         <v>100.68792466725216</v>
       </c>
     </row>
     <row r="199" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C199" s="60" t="s">
+      <c r="C199" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D199" s="60" t="s">
+      <c r="D199" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="E199" s="79">
+      <c r="E199" s="66">
         <v>106</v>
       </c>
     </row>
     <row r="200" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C200" s="58" t="s">
+      <c r="C200" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="D200" s="58" t="s">
+      <c r="D200" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E200" s="78">
+      <c r="E200" s="65">
         <v>128.35756677948501</v>
       </c>
     </row>
     <row r="201" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C201" s="60" t="s">
+      <c r="C201" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="D201" s="59" t="s">
+      <c r="D201" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="E201" s="76">
+      <c r="E201" s="63">
         <f>$K$4</f>
         <v>183.35458014004848</v>
       </c>
     </row>
     <row r="202" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C202" s="60" t="s">
+      <c r="C202" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D202" s="60" t="s">
+      <c r="D202" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E202" s="77">
+      <c r="E202" s="64">
         <v>186.43031784841074</v>
       </c>
     </row>
     <row r="203" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C203" s="60" t="s">
+      <c r="C203" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D203" s="60" t="s">
+      <c r="D203" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E203" s="79">
+      <c r="E203" s="66">
         <v>207</v>
       </c>
     </row>
     <row r="204" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C204" s="58" t="s">
+      <c r="C204" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="D204" s="58" t="s">
+      <c r="D204" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E204" s="78">
+      <c r="E204" s="65">
         <v>219.91618277837699</v>
       </c>
     </row>
     <row r="205" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C205" s="60" t="s">
+      <c r="C205" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="D205" s="71" t="s">
+      <c r="D205" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="E205" s="88">
+      <c r="E205" s="75">
         <f>$J$6</f>
         <v>322.41110875094552</v>
       </c>
     </row>
     <row r="206" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C206" s="60" t="s">
+      <c r="C206" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D206" s="60" t="s">
+      <c r="D206" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E206" s="79">
+      <c r="E206" s="66">
         <v>384.53960806413698</v>
       </c>
     </row>
     <row r="207" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C207" s="60" t="s">
+      <c r="C207" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="D207" s="70" t="s">
+      <c r="D207" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="E207" s="89">
+      <c r="E207" s="76">
         <v>503.43962333626081</v>
       </c>
     </row>
     <row r="208" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C208" s="58" t="s">
+      <c r="C208" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="D208" s="58" t="s">
+      <c r="D208" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E208" s="78">
+      <c r="E208" s="65">
         <v>719.50580038431201</v>
       </c>
     </row>
     <row r="209" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C209" s="60" t="s">
+      <c r="C209" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D209" s="60" t="s">
+      <c r="D209" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="E209" s="79">
+      <c r="E209" s="66">
         <v>756.05502745915203</v>
       </c>
     </row>
     <row r="210" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C210" s="58" t="s">
+      <c r="C210" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="D210" s="58" t="s">
+      <c r="D210" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="E210" s="74">
+      <c r="E210" s="61">
         <v>1006.8792466725216</v>
       </c>
     </row>
     <row r="211" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C211" s="60" t="s">
+      <c r="C211" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="D211" s="58" t="s">
+      <c r="D211" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="E211" s="73">
+      <c r="E211" s="60">
         <f>$J$4</f>
         <v>1222.3638676003236</v>
       </c>
     </row>
     <row r="212" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C212" s="58" t="s">
+      <c r="C212" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="D212" s="58" t="s">
+      <c r="D212" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E212" s="78">
+      <c r="E212" s="65">
         <v>1276.43625515697</v>
       </c>
     </row>
     <row r="213" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C213" s="60" t="s">
+      <c r="C213" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D213" s="60" t="s">
+      <c r="D213" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E213" s="79">
+      <c r="E213" s="66">
         <v>1510.89491949177</v>
       </c>
     </row>
     <row r="214" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C214" s="83" t="s">
+      <c r="C214" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="D214" s="83" t="s">
+      <c r="D214" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="E214" s="87">
+      <c r="E214" s="74">
         <f>$I$4</f>
         <v>2003.7342265009818</v>
       </c>
     </row>
     <row r="215" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C215" s="83"/>
-      <c r="D215" s="83"/>
-      <c r="E215" s="84"/>
+      <c r="C215" s="70"/>
+      <c r="D215" s="70"/>
+      <c r="E215" s="71"/>
     </row>
     <row r="219" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C219" s="2" t="s">
@@ -17947,7 +18077,7 @@
       </c>
     </row>
     <row r="225" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C225" s="70" t="s">
+      <c r="C225" s="57" t="s">
         <v>21</v>
       </c>
       <c r="D225" s="7">
@@ -17956,7 +18086,7 @@
       </c>
     </row>
     <row r="226" spans="3:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C226" s="80" t="s">
+      <c r="C226" s="67" t="s">
         <v>238</v>
       </c>
       <c r="D226" s="7">
@@ -18053,22 +18183,22 @@
         <v>0</v>
       </c>
       <c r="G248" s="4">
-        <f>F248*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" ref="G248:G257" si="59">F248*TREATMENT_REDUCTION_FACTOR</f>
         <v>0</v>
       </c>
       <c r="H248" s="7">
         <f>F248-G248</f>
         <v>0</v>
       </c>
-      <c r="I248" s="68">
+      <c r="I248" s="55">
         <f>E248/D248*1000000</f>
         <v>2003.7342265009818</v>
       </c>
-      <c r="J248" s="68">
+      <c r="J248" s="55">
         <f>F248/D248*1000000</f>
         <v>0</v>
       </c>
-      <c r="K248" s="68">
+      <c r="K248" s="55">
         <f>H248/D248*1000000</f>
         <v>0</v>
       </c>
@@ -18092,27 +18222,27 @@
         <v>294649</v>
       </c>
       <c r="F249" s="4">
-        <f>E249*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" ref="F249:F257" si="60">E249*CDC_ANUALIZATION_FACTOR</f>
         <v>179748.53474131206</v>
       </c>
       <c r="G249" s="4">
-        <f>F249*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="59"/>
         <v>152786.25453011526</v>
       </c>
       <c r="H249" s="7">
         <f>F249-G249</f>
         <v>26962.280211196805</v>
       </c>
-      <c r="I249" s="68">
-        <f t="shared" ref="I249" si="51">E249/D249*1000000</f>
+      <c r="I249" s="55">
+        <f t="shared" ref="I249" si="61">E249/D249*1000000</f>
         <v>948.1835939385553</v>
       </c>
-      <c r="J249" s="68">
-        <f t="shared" ref="J249:J265" si="52">F249/D249*1000000</f>
+      <c r="J249" s="55">
+        <f t="shared" ref="J249:J265" si="62">F249/D249*1000000</f>
         <v>578.43268321360858</v>
       </c>
-      <c r="K249" s="68">
-        <f t="shared" ref="K249:K265" si="53">H249/D249*1000000</f>
+      <c r="K249" s="55">
+        <f t="shared" ref="K249:K265" si="63">H249/D249*1000000</f>
         <v>86.764902482041265</v>
       </c>
       <c r="L249" t="s">
@@ -18127,7 +18257,7 @@
         <v>51</v>
       </c>
       <c r="D250" s="4">
-        <f>VLOOKUP(C250,AGE_POP,3,FALSE)</f>
+        <f t="shared" ref="D250:D257" si="64">VLOOKUP(C250,AGE_POP,3,FALSE)</f>
         <v>74660000</v>
       </c>
       <c r="E250" s="4">
@@ -18135,27 +18265,27 @@
         <v>439</v>
       </c>
       <c r="F250" s="4">
-        <f>E250*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="60"/>
         <v>267.80883950543188</v>
       </c>
       <c r="G250" s="4">
-        <f>F250*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="59"/>
         <v>227.63751357961709</v>
       </c>
       <c r="H250" s="7">
-        <f t="shared" ref="H250:H280" si="54">F250-G250</f>
+        <f t="shared" ref="H250:H280" si="65">F250-G250</f>
         <v>40.171325925814784</v>
       </c>
-      <c r="I250" s="68">
+      <c r="I250" s="55">
         <f>E250/D250*1000000</f>
         <v>5.8799892847575679</v>
       </c>
-      <c r="J250" s="68">
-        <f t="shared" si="52"/>
+      <c r="J250" s="55">
+        <f t="shared" si="62"/>
         <v>3.5870458010371267</v>
       </c>
-      <c r="K250" s="68">
-        <f t="shared" si="53"/>
+      <c r="K250" s="55">
+        <f t="shared" si="63"/>
         <v>0.53805687015556902</v>
       </c>
       <c r="L250" t="s">
@@ -18170,7 +18300,7 @@
         <v>52</v>
       </c>
       <c r="D251" s="4">
-        <f>VLOOKUP(C251,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="64"/>
         <v>53184000</v>
       </c>
       <c r="E251" s="4">
@@ -18178,27 +18308,27 @@
         <v>3212</v>
       </c>
       <c r="F251" s="4">
-        <f>E251*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="60"/>
         <v>1959.4578416661666</v>
       </c>
       <c r="G251" s="4">
-        <f>F251*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="59"/>
         <v>1665.5391654162415</v>
       </c>
       <c r="H251" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>293.91867624992506</v>
       </c>
-      <c r="I251" s="68">
-        <f t="shared" ref="I251:I265" si="55">E251/D251*1000000</f>
+      <c r="I251" s="55">
+        <f t="shared" ref="I251:I265" si="66">E251/D251*1000000</f>
         <v>60.394103489771354</v>
       </c>
-      <c r="J251" s="68">
-        <f t="shared" si="52"/>
+      <c r="J251" s="55">
+        <f t="shared" si="62"/>
         <v>36.842994917008248</v>
       </c>
-      <c r="K251" s="68">
-        <f t="shared" si="53"/>
+      <c r="K251" s="55">
+        <f t="shared" si="63"/>
         <v>5.5264492375512377</v>
       </c>
       <c r="L251" t="s">
@@ -18213,7 +18343,7 @@
         <v>53</v>
       </c>
       <c r="D252" s="4">
-        <f>VLOOKUP(C252,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="64"/>
         <v>45194000</v>
       </c>
       <c r="E252" s="4">
@@ -18221,27 +18351,27 @@
         <v>9240</v>
       </c>
       <c r="F252" s="4">
-        <f>E252*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="60"/>
         <v>5636.7965308204793</v>
       </c>
       <c r="G252" s="4">
-        <f>F252*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="59"/>
         <v>4791.2770511974077</v>
       </c>
       <c r="H252" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>845.51947962307167</v>
       </c>
-      <c r="I252" s="68">
-        <f t="shared" si="55"/>
+      <c r="I252" s="55">
+        <f t="shared" si="66"/>
         <v>204.45191839624729</v>
       </c>
-      <c r="J252" s="68">
-        <f t="shared" si="52"/>
+      <c r="J252" s="55">
+        <f t="shared" si="62"/>
         <v>124.72444419216002</v>
       </c>
-      <c r="K252" s="68">
-        <f t="shared" si="53"/>
+      <c r="K252" s="55">
+        <f t="shared" si="63"/>
         <v>18.708666628823995</v>
       </c>
       <c r="L252" t="s">
@@ -18256,7 +18386,7 @@
         <v>54</v>
       </c>
       <c r="D253" s="4">
-        <f>VLOOKUP(C253,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="64"/>
         <v>41153000</v>
       </c>
       <c r="E253" s="4">
@@ -18264,27 +18394,27 @@
         <v>23501</v>
       </c>
       <c r="F253" s="4">
-        <f>E253*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="60"/>
         <v>14336.618535802172</v>
       </c>
       <c r="G253" s="4">
-        <f>F253*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="59"/>
         <v>12186.125755431845</v>
       </c>
       <c r="H253" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>2150.4927803703267</v>
       </c>
-      <c r="I253" s="68">
-        <f t="shared" si="55"/>
+      <c r="I253" s="55">
+        <f t="shared" si="66"/>
         <v>571.0640779530047</v>
       </c>
-      <c r="J253" s="68">
-        <f t="shared" si="52"/>
+      <c r="J253" s="55">
+        <f t="shared" si="62"/>
         <v>348.37359453265066</v>
       </c>
-      <c r="K253" s="68">
-        <f t="shared" si="53"/>
+      <c r="K253" s="55">
+        <f t="shared" si="63"/>
         <v>52.25603917989762</v>
       </c>
       <c r="L253" t="s">
@@ -18299,7 +18429,7 @@
         <v>55</v>
       </c>
       <c r="D254" s="4">
-        <f>VLOOKUP(C254,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="64"/>
         <v>64105000</v>
       </c>
       <c r="E254" s="4">
@@ -18307,27 +18437,27 @@
         <v>110689</v>
       </c>
       <c r="F254" s="4">
-        <f>E254*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="60"/>
         <v>67525.040173158879</v>
       </c>
       <c r="G254" s="4">
-        <f>F254*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="59"/>
         <v>57396.284147185048</v>
       </c>
       <c r="H254" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>10128.756025973831</v>
       </c>
-      <c r="I254" s="68">
-        <f t="shared" si="55"/>
+      <c r="I254" s="55">
+        <f t="shared" si="66"/>
         <v>1726.68278605413</v>
       </c>
-      <c r="J254" s="68">
-        <f t="shared" si="52"/>
+      <c r="J254" s="55">
+        <f t="shared" si="62"/>
         <v>1053.350599378502</v>
       </c>
-      <c r="K254" s="68">
-        <f t="shared" si="53"/>
+      <c r="K254" s="55">
+        <f t="shared" si="63"/>
         <v>158.00258990677531</v>
       </c>
       <c r="L254" t="s">
@@ -18342,7 +18472,7 @@
         <v>56</v>
       </c>
       <c r="D255" s="4">
-        <f>VLOOKUP(C255,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="64"/>
         <v>32455000</v>
       </c>
       <c r="E255" s="4">
@@ -18350,27 +18480,27 @@
         <v>147568</v>
       </c>
       <c r="F255" s="4">
-        <f>E255*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="60"/>
         <v>90022.812820358929</v>
       </c>
       <c r="G255" s="4">
-        <f>F255*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="59"/>
         <v>76519.390897305086</v>
       </c>
       <c r="H255" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>13503.421923053844</v>
       </c>
-      <c r="I255" s="68">
-        <f t="shared" si="55"/>
+      <c r="I255" s="55">
+        <f t="shared" si="66"/>
         <v>4546.8494839007853</v>
       </c>
-      <c r="J255" s="68">
-        <f t="shared" si="52"/>
+      <c r="J255" s="55">
+        <f t="shared" si="62"/>
         <v>2773.7733113652421</v>
       </c>
-      <c r="K255" s="68">
-        <f t="shared" si="53"/>
+      <c r="K255" s="55">
+        <f t="shared" si="63"/>
         <v>416.06599670478641</v>
       </c>
       <c r="L255" t="s">
@@ -18385,7 +18515,7 @@
         <v>57</v>
       </c>
       <c r="D256" s="4">
-        <f>VLOOKUP(C256,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="64"/>
         <v>15785000</v>
       </c>
       <c r="E256" s="4">
@@ -18393,27 +18523,27 @@
         <v>176763</v>
       </c>
       <c r="F256" s="4">
-        <f>E256*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="60"/>
         <v>107833.01571184203</v>
       </c>
       <c r="G256" s="4">
-        <f>F256*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="59"/>
         <v>91658.063355065722</v>
       </c>
       <c r="H256" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>16174.95235677631</v>
       </c>
-      <c r="I256" s="68">
-        <f t="shared" si="55"/>
+      <c r="I256" s="55">
+        <f t="shared" si="66"/>
         <v>11198.16281279696</v>
       </c>
-      <c r="J256" s="68">
-        <f t="shared" si="52"/>
+      <c r="J256" s="55">
+        <f t="shared" si="62"/>
         <v>6831.3598803827708</v>
       </c>
-      <c r="K256" s="68">
-        <f t="shared" si="53"/>
+      <c r="K256" s="55">
+        <f t="shared" si="63"/>
         <v>1024.7039820574159</v>
       </c>
       <c r="L256" t="s">
@@ -18428,7 +18558,7 @@
         <v>58</v>
       </c>
       <c r="D257" s="4">
-        <f>VLOOKUP(C257,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="64"/>
         <v>6063000</v>
       </c>
       <c r="E257" s="4">
@@ -18436,27 +18566,27 @@
         <v>187342</v>
       </c>
       <c r="F257" s="4">
-        <f>E257*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="60"/>
         <v>114286.65970529981</v>
       </c>
       <c r="G257" s="4">
-        <f>F257*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="59"/>
         <v>97143.660749504837</v>
       </c>
       <c r="H257" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>17142.998955794974</v>
       </c>
-      <c r="I257" s="68">
-        <f t="shared" si="55"/>
+      <c r="I257" s="55">
+        <f t="shared" si="66"/>
         <v>30899.22480620155</v>
       </c>
-      <c r="J257" s="68">
-        <f t="shared" si="52"/>
+      <c r="J257" s="55">
+        <f t="shared" si="62"/>
         <v>18849.853159376515</v>
       </c>
-      <c r="K257" s="68">
-        <f t="shared" si="53"/>
+      <c r="K257" s="55">
+        <f t="shared" si="63"/>
         <v>2827.4779739064779</v>
       </c>
       <c r="L257" t="s">
@@ -18484,18 +18614,18 @@
         <v>0</v>
       </c>
       <c r="H258" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>18132.5</v>
       </c>
-      <c r="I258" s="68">
-        <f t="shared" si="55"/>
+      <c r="I258" s="55">
+        <f t="shared" si="66"/>
         <v>80.550339733801721</v>
       </c>
-      <c r="J258" s="68">
-        <f t="shared" si="52"/>
+      <c r="J258" s="55">
+        <f t="shared" si="62"/>
         <v>100.68792466725216</v>
       </c>
-      <c r="K258" s="68"/>
+      <c r="K258" s="55"/>
       <c r="L258" t="s">
         <v>222</v>
       </c>
@@ -18515,25 +18645,25 @@
         <v>72530</v>
       </c>
       <c r="F259" s="4">
-        <f t="shared" ref="F259" si="56">E259+3/12*E259</f>
+        <f t="shared" ref="F259" si="67">E259+3/12*E259</f>
         <v>90662.5</v>
       </c>
       <c r="G259" s="7">
         <v>0</v>
       </c>
       <c r="H259" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>90662.5</v>
       </c>
-      <c r="I259" s="68">
-        <f t="shared" si="55"/>
+      <c r="I259" s="55">
+        <f t="shared" si="66"/>
         <v>402.75169866900865</v>
       </c>
-      <c r="J259" s="68">
-        <f t="shared" si="52"/>
+      <c r="J259" s="55">
+        <f t="shared" si="62"/>
         <v>503.43962333626081</v>
       </c>
-      <c r="K259" s="68"/>
+      <c r="K259" s="55"/>
       <c r="L259" t="s">
         <v>222</v>
       </c>
@@ -18560,19 +18690,19 @@
         <v>0</v>
       </c>
       <c r="H260" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>181325</v>
       </c>
-      <c r="I260" s="68">
-        <f t="shared" si="55"/>
+      <c r="I260" s="55">
+        <f t="shared" si="66"/>
         <v>805.50339733801729</v>
       </c>
-      <c r="J260" s="68">
-        <f t="shared" si="52"/>
+      <c r="J260" s="55">
+        <f t="shared" si="62"/>
         <v>1006.8792466725216</v>
       </c>
-      <c r="K260" s="68">
-        <f t="shared" si="53"/>
+      <c r="K260" s="55">
+        <f t="shared" si="63"/>
         <v>1006.8792466725216</v>
       </c>
       <c r="L260" t="s">
@@ -18599,19 +18729,19 @@
         <v>0</v>
       </c>
       <c r="H261" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>50000000</v>
       </c>
-      <c r="I261" s="68">
-        <f t="shared" si="55"/>
+      <c r="I261" s="55">
+        <f t="shared" si="66"/>
         <v>27777.777777777777</v>
       </c>
-      <c r="J261" s="68">
-        <f t="shared" si="52"/>
+      <c r="J261" s="55">
+        <f t="shared" si="62"/>
         <v>27777.777777777777</v>
       </c>
-      <c r="K261" s="68">
-        <f t="shared" si="53"/>
+      <c r="K261" s="55">
+        <f t="shared" si="63"/>
         <v>27777.777777777777</v>
       </c>
       <c r="L261" t="s">
@@ -18638,19 +18768,19 @@
         <v>0</v>
       </c>
       <c r="H262" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>50000000</v>
       </c>
-      <c r="I262" s="68">
-        <f t="shared" si="55"/>
+      <c r="I262" s="55">
+        <f t="shared" si="66"/>
         <v>250000</v>
       </c>
-      <c r="J262" s="68">
-        <f t="shared" si="52"/>
+      <c r="J262" s="55">
+        <f t="shared" si="62"/>
         <v>250000</v>
       </c>
-      <c r="K262" s="68">
-        <f t="shared" si="53"/>
+      <c r="K262" s="55">
+        <f t="shared" si="63"/>
         <v>250000</v>
       </c>
       <c r="L262" t="s">
@@ -18677,19 +18807,19 @@
         <v>0</v>
       </c>
       <c r="H263" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>200000000</v>
       </c>
-      <c r="I263" s="68">
-        <f t="shared" si="55"/>
+      <c r="I263" s="55">
+        <f t="shared" si="66"/>
         <v>555555.55555555562</v>
       </c>
-      <c r="J263" s="68">
-        <f t="shared" si="52"/>
+      <c r="J263" s="55">
+        <f t="shared" si="62"/>
         <v>555555.55555555562</v>
       </c>
-      <c r="K263" s="68">
-        <f t="shared" si="53"/>
+      <c r="K263" s="55">
+        <f t="shared" si="63"/>
         <v>555555.55555555562</v>
       </c>
       <c r="L263" t="s">
@@ -18716,19 +18846,19 @@
         <v>0</v>
       </c>
       <c r="H264" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>56000000</v>
       </c>
-      <c r="I264" s="68">
-        <f t="shared" si="55"/>
+      <c r="I264" s="55">
+        <f t="shared" si="66"/>
         <v>900000</v>
       </c>
-      <c r="J264" s="68">
-        <f t="shared" si="52"/>
+      <c r="J264" s="55">
+        <f t="shared" si="62"/>
         <v>900000</v>
       </c>
-      <c r="K264" s="68">
-        <f t="shared" si="53"/>
+      <c r="K264" s="55">
+        <f t="shared" si="63"/>
         <v>900000</v>
       </c>
       <c r="L264" t="s">
@@ -18739,7 +18869,7 @@
       <c r="B265" t="s">
         <v>223</v>
       </c>
-      <c r="C265" s="59" t="s">
+      <c r="C265" s="46" t="s">
         <v>21</v>
       </c>
       <c r="D265" s="4">
@@ -18755,19 +18885,19 @@
         <v>0</v>
       </c>
       <c r="H265" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>61000</v>
       </c>
-      <c r="I265" s="68">
-        <f t="shared" si="55"/>
+      <c r="I265" s="55">
+        <f t="shared" si="66"/>
         <v>186.43031784841074</v>
       </c>
-      <c r="J265" s="68">
-        <f t="shared" si="52"/>
+      <c r="J265" s="55">
+        <f t="shared" si="62"/>
         <v>186.43031784841074</v>
       </c>
-      <c r="K265" s="68">
-        <f t="shared" si="53"/>
+      <c r="K265" s="55">
+        <f t="shared" si="63"/>
         <v>186.43031784841074</v>
       </c>
       <c r="L265">
@@ -18796,11 +18926,11 @@
         <v>0</v>
       </c>
       <c r="H266" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>103.08275034321647</v>
       </c>
-      <c r="I266" s="68">
-        <f>VLOOKUP(C266,CausesOfDeath,3,FALSE)</f>
+      <c r="I266" s="55">
+        <f t="shared" ref="I266:I279" si="68">VLOOKUP(C266,CausesOfDeath,3,FALSE)</f>
         <v>0.31708013024674403</v>
       </c>
       <c r="J266" s="11">
@@ -18826,30 +18956,30 @@
         <v>325100000</v>
       </c>
       <c r="E267" s="4">
-        <f t="shared" ref="E267:E279" si="57">I267/1000000*D267</f>
+        <f t="shared" ref="E267:E279" si="69">I267/1000000*D267</f>
         <v>1629.7968482274014</v>
       </c>
       <c r="F267" s="4">
-        <f t="shared" ref="F267:F279" si="58">E267</f>
+        <f t="shared" ref="F267:F279" si="70">E267</f>
         <v>1629.7968482274014</v>
       </c>
       <c r="G267" s="7">
         <v>0</v>
       </c>
       <c r="H267" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>1629.7968482274014</v>
       </c>
-      <c r="I267" s="68">
-        <f>VLOOKUP(C267,CausesOfDeath,3,FALSE)</f>
+      <c r="I267" s="55">
+        <f t="shared" si="68"/>
         <v>5.0132170046982507</v>
       </c>
       <c r="J267" s="11">
-        <f t="shared" ref="J267:K267" si="59">I267</f>
+        <f t="shared" ref="J267:K267" si="71">I267</f>
         <v>5.0132170046982507</v>
       </c>
       <c r="K267" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>5.0132170046982507</v>
       </c>
       <c r="L267">
@@ -18867,30 +18997,30 @@
         <v>325100000</v>
       </c>
       <c r="E268" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>3758.2014884459049</v>
       </c>
       <c r="F268" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>3758.2014884459049</v>
       </c>
       <c r="G268" s="7">
         <v>0</v>
       </c>
       <c r="H268" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>3758.2014884459049</v>
       </c>
-      <c r="I268" s="68">
-        <f>VLOOKUP(C268,CausesOfDeath,3,FALSE)</f>
+      <c r="I268" s="55">
+        <f t="shared" si="68"/>
         <v>11.5601399213962</v>
       </c>
       <c r="J268" s="11">
-        <f t="shared" ref="J268:K268" si="60">I268</f>
+        <f t="shared" ref="J268:K268" si="72">I268</f>
         <v>11.5601399213962</v>
       </c>
       <c r="K268" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>11.5601399213962</v>
       </c>
       <c r="L268">
@@ -18908,30 +19038,30 @@
         <v>325100000</v>
       </c>
       <c r="E269" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>4138.0398041314456</v>
       </c>
       <c r="F269" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>4138.0398041314456</v>
       </c>
       <c r="G269" s="7">
         <v>0</v>
       </c>
       <c r="H269" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>4138.0398041314456</v>
       </c>
-      <c r="I269" s="68">
-        <f>VLOOKUP(C269,CausesOfDeath,3,FALSE)</f>
+      <c r="I269" s="55">
+        <f t="shared" si="68"/>
         <v>12.7285137008042</v>
       </c>
       <c r="J269" s="11">
-        <f t="shared" ref="J269:K269" si="61">I269</f>
+        <f t="shared" ref="J269:K269" si="73">I269</f>
         <v>12.7285137008042</v>
       </c>
       <c r="K269" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>12.7285137008042</v>
       </c>
       <c r="L269">
@@ -18949,30 +19079,30 @@
         <v>325100000</v>
       </c>
       <c r="E270" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>10538.699339224408</v>
       </c>
       <c r="F270" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>10538.699339224408</v>
       </c>
       <c r="G270" s="7">
         <v>0</v>
       </c>
       <c r="H270" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>10538.699339224408</v>
       </c>
-      <c r="I270" s="68">
-        <f>VLOOKUP(C270,CausesOfDeath,3,FALSE)</f>
+      <c r="I270" s="55">
+        <f t="shared" si="68"/>
         <v>32.416792799828997</v>
       </c>
       <c r="J270" s="11">
-        <f t="shared" ref="J270:K270" si="62">I270</f>
+        <f t="shared" ref="J270:K270" si="74">I270</f>
         <v>32.416792799828997</v>
       </c>
       <c r="K270" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>32.416792799828997</v>
       </c>
       <c r="L270">
@@ -18990,30 +19120,30 @@
         <v>325100000</v>
       </c>
       <c r="E271" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>34460.6</v>
       </c>
       <c r="F271" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>34460.6</v>
       </c>
       <c r="G271" s="7">
         <v>0</v>
       </c>
       <c r="H271" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>34460.6</v>
       </c>
-      <c r="I271" s="68">
-        <f>VLOOKUP(C271,CausesOfDeath,3,FALSE)</f>
+      <c r="I271" s="55">
+        <f t="shared" si="68"/>
         <v>106</v>
       </c>
       <c r="J271" s="11">
-        <f t="shared" ref="J271:K271" si="63">I271</f>
+        <f t="shared" ref="J271:K271" si="75">I271</f>
         <v>106</v>
       </c>
       <c r="K271" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>106</v>
       </c>
       <c r="L271">
@@ -19031,30 +19161,30 @@
         <v>325100000</v>
       </c>
       <c r="E272" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>41729.044960010571</v>
       </c>
       <c r="F272" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>41729.044960010571</v>
       </c>
       <c r="G272" s="7">
         <v>0</v>
       </c>
       <c r="H272" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>41729.044960010571</v>
       </c>
-      <c r="I272" s="68">
-        <f>VLOOKUP(C272,CausesOfDeath,3,FALSE)</f>
+      <c r="I272" s="55">
+        <f t="shared" si="68"/>
         <v>128.35756677948501</v>
       </c>
       <c r="J272" s="11">
-        <f t="shared" ref="J272:K272" si="64">I272</f>
+        <f t="shared" ref="J272:K272" si="76">I272</f>
         <v>128.35756677948501</v>
       </c>
       <c r="K272" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>128.35756677948501</v>
       </c>
       <c r="L272">
@@ -19072,30 +19202,30 @@
         <v>325100000</v>
       </c>
       <c r="E273" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>67295.7</v>
       </c>
       <c r="F273" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>67295.7</v>
       </c>
       <c r="G273" s="7">
         <v>0</v>
       </c>
       <c r="H273" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>67295.7</v>
       </c>
-      <c r="I273" s="68">
-        <f>VLOOKUP(C273,CausesOfDeath,3,FALSE)</f>
+      <c r="I273" s="55">
+        <f t="shared" si="68"/>
         <v>207</v>
       </c>
       <c r="J273" s="11">
-        <f t="shared" ref="J273:K273" si="65">I273</f>
+        <f t="shared" ref="J273:K273" si="77">I273</f>
         <v>207</v>
       </c>
       <c r="K273" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>207</v>
       </c>
       <c r="L273">
@@ -19113,30 +19243,30 @@
         <v>325100000</v>
       </c>
       <c r="E274" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>71494.751021250369</v>
       </c>
       <c r="F274" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>71494.751021250369</v>
       </c>
       <c r="G274" s="7">
         <v>0</v>
       </c>
       <c r="H274" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>71494.751021250369</v>
       </c>
-      <c r="I274" s="68">
-        <f>VLOOKUP(C274,CausesOfDeath,3,FALSE)</f>
+      <c r="I274" s="55">
+        <f t="shared" si="68"/>
         <v>219.91618277837699</v>
       </c>
       <c r="J274" s="11">
-        <f t="shared" ref="J274:K274" si="66">I274</f>
+        <f t="shared" ref="J274:K274" si="78">I274</f>
         <v>219.91618277837699</v>
       </c>
       <c r="K274" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>219.91618277837699</v>
       </c>
       <c r="L274">
@@ -19154,30 +19284,30 @@
         <v>325100000</v>
       </c>
       <c r="E275" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>125013.82658165094</v>
       </c>
       <c r="F275" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>125013.82658165094</v>
       </c>
       <c r="G275" s="7">
         <v>0</v>
       </c>
       <c r="H275" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>125013.82658165094</v>
       </c>
-      <c r="I275" s="68">
-        <f>VLOOKUP(C275,CausesOfDeath,3,FALSE)</f>
+      <c r="I275" s="55">
+        <f t="shared" si="68"/>
         <v>384.53960806413698</v>
       </c>
       <c r="J275" s="11">
-        <f t="shared" ref="J275:K275" si="67">I275</f>
+        <f t="shared" ref="J275:K275" si="79">I275</f>
         <v>384.53960806413698</v>
       </c>
       <c r="K275" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>384.53960806413698</v>
       </c>
       <c r="L275">
@@ -19195,30 +19325,30 @@
         <v>325100000</v>
       </c>
       <c r="E276" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>233911.33570493985</v>
       </c>
       <c r="F276" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>233911.33570493985</v>
       </c>
       <c r="G276" s="7">
         <v>0</v>
       </c>
       <c r="H276" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>233911.33570493985</v>
       </c>
-      <c r="I276" s="68">
-        <f>VLOOKUP(C276,CausesOfDeath,3,FALSE)</f>
+      <c r="I276" s="55">
+        <f t="shared" si="68"/>
         <v>719.50580038431201</v>
       </c>
       <c r="J276" s="11">
-        <f t="shared" ref="J276:K276" si="68">I276</f>
+        <f t="shared" ref="J276:K276" si="80">I276</f>
         <v>719.50580038431201</v>
       </c>
       <c r="K276" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>719.50580038431201</v>
       </c>
       <c r="L276">
@@ -19236,30 +19366,30 @@
         <v>325100000</v>
       </c>
       <c r="E277" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>245793.48942697034</v>
       </c>
       <c r="F277" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>245793.48942697034</v>
       </c>
       <c r="G277" s="7">
         <v>0</v>
       </c>
       <c r="H277" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>245793.48942697034</v>
       </c>
-      <c r="I277" s="68">
-        <f>VLOOKUP(C277,CausesOfDeath,3,FALSE)</f>
+      <c r="I277" s="55">
+        <f t="shared" si="68"/>
         <v>756.05502745915203</v>
       </c>
       <c r="J277" s="11">
-        <f t="shared" ref="J277:K277" si="69">I277</f>
+        <f t="shared" ref="J277:K277" si="81">I277</f>
         <v>756.05502745915203</v>
       </c>
       <c r="K277" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>756.05502745915203</v>
       </c>
       <c r="L277">
@@ -19277,30 +19407,30 @@
         <v>325100000</v>
       </c>
       <c r="E278" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>414969.42655153089</v>
       </c>
       <c r="F278" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>414969.42655153089</v>
       </c>
       <c r="G278" s="7">
         <v>0</v>
       </c>
       <c r="H278" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>414969.42655153089</v>
       </c>
-      <c r="I278" s="68">
-        <f>VLOOKUP(C278,CausesOfDeath,3,FALSE)</f>
+      <c r="I278" s="55">
+        <f t="shared" si="68"/>
         <v>1276.43625515697</v>
       </c>
       <c r="J278" s="11">
-        <f t="shared" ref="J278:K278" si="70">I278</f>
+        <f t="shared" ref="J278:K278" si="82">I278</f>
         <v>1276.43625515697</v>
       </c>
       <c r="K278" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>1276.43625515697</v>
       </c>
       <c r="L278">
@@ -19318,30 +19448,30 @@
         <v>325100000</v>
       </c>
       <c r="E279" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>491191.93832677446</v>
       </c>
       <c r="F279" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>491191.93832677446</v>
       </c>
       <c r="G279" s="7">
         <v>0</v>
       </c>
       <c r="H279" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>491191.93832677446</v>
       </c>
-      <c r="I279" s="68">
-        <f>VLOOKUP(C279,CausesOfDeath,3,FALSE)</f>
+      <c r="I279" s="55">
+        <f t="shared" si="68"/>
         <v>1510.89491949177</v>
       </c>
       <c r="J279" s="11">
-        <f t="shared" ref="J279:K279" si="71">I279</f>
+        <f t="shared" ref="J279:K279" si="83">I279</f>
         <v>1510.89491949177</v>
       </c>
       <c r="K279" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="83"/>
         <v>1510.89491949177</v>
       </c>
       <c r="L279">
@@ -19370,19 +19500,19 @@
         <v>0</v>
       </c>
       <c r="H280" s="7" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>#REF!</v>
       </c>
-      <c r="I280" s="68" t="e">
-        <f t="shared" ref="I280" si="72">E280/D280*1000000</f>
+      <c r="I280" s="55" t="e">
+        <f t="shared" ref="I280" si="84">E280/D280*1000000</f>
         <v>#REF!</v>
       </c>
-      <c r="J280" s="68" t="e">
-        <f t="shared" ref="J280" si="73">F280/D280*1000000</f>
+      <c r="J280" s="55" t="e">
+        <f t="shared" ref="J280" si="85">F280/D280*1000000</f>
         <v>#REF!</v>
       </c>
-      <c r="K280" s="68" t="e">
-        <f t="shared" ref="K280" si="74">H280/D280*1000000</f>
+      <c r="K280" s="55" t="e">
+        <f t="shared" ref="K280" si="86">H280/D280*1000000</f>
         <v>#REF!</v>
       </c>
       <c r="L280" t="s">
@@ -19443,22 +19573,22 @@
         <v>0</v>
       </c>
       <c r="G298" s="4">
-        <f>F298*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" ref="G298:G307" si="87">F298*TREATMENT_REDUCTION_FACTOR</f>
         <v>0</v>
       </c>
       <c r="H298" s="7">
         <f>F298-G298</f>
         <v>0</v>
       </c>
-      <c r="I298" s="68">
+      <c r="I298" s="55">
         <f>E298/D298*1000000</f>
         <v>2003.7342265009818</v>
       </c>
-      <c r="J298" s="68">
+      <c r="J298" s="55">
         <f>F298/D298*1000000</f>
         <v>0</v>
       </c>
-      <c r="K298" s="68">
+      <c r="K298" s="55">
         <f>H298/D298*1000000</f>
         <v>0</v>
       </c>
@@ -19482,27 +19612,27 @@
         <v>294649</v>
       </c>
       <c r="F299" s="4">
-        <f>E299*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" ref="F299:F307" si="88">E299*CDC_ANUALIZATION_FACTOR</f>
         <v>179748.53474131206</v>
       </c>
       <c r="G299" s="4">
-        <f>F299*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="87"/>
         <v>152786.25453011526</v>
       </c>
       <c r="H299" s="7">
         <f>F299-G299</f>
         <v>26962.280211196805</v>
       </c>
-      <c r="I299" s="68">
-        <f t="shared" ref="I299" si="75">E299/D299*1000000</f>
+      <c r="I299" s="55">
+        <f t="shared" ref="I299" si="89">E299/D299*1000000</f>
         <v>948.1835939385553</v>
       </c>
-      <c r="J299" s="68">
-        <f t="shared" ref="J299:J315" si="76">F299/D299*1000000</f>
+      <c r="J299" s="55">
+        <f t="shared" ref="J299:J315" si="90">F299/D299*1000000</f>
         <v>578.43268321360858</v>
       </c>
-      <c r="K299" s="68">
-        <f t="shared" ref="K299:K315" si="77">H299/D299*1000000</f>
+      <c r="K299" s="55">
+        <f t="shared" ref="K299:K307" si="91">H299/D299*1000000</f>
         <v>86.764902482041265</v>
       </c>
       <c r="L299" t="s">
@@ -19517,7 +19647,7 @@
         <v>51</v>
       </c>
       <c r="D300" s="4">
-        <f>VLOOKUP(C300,AGE_POP,3,FALSE)</f>
+        <f t="shared" ref="D300:D307" si="92">VLOOKUP(C300,AGE_POP,3,FALSE)</f>
         <v>74660000</v>
       </c>
       <c r="E300" s="4">
@@ -19525,27 +19655,27 @@
         <v>439</v>
       </c>
       <c r="F300" s="4">
-        <f>E300*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="88"/>
         <v>267.80883950543188</v>
       </c>
       <c r="G300" s="4">
-        <f>F300*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="87"/>
         <v>227.63751357961709</v>
       </c>
       <c r="H300" s="7">
-        <f t="shared" ref="H300:H330" si="78">F300-G300</f>
+        <f t="shared" ref="H300:H330" si="93">F300-G300</f>
         <v>40.171325925814784</v>
       </c>
-      <c r="I300" s="68">
+      <c r="I300" s="55">
         <f>E300/D300*1000000</f>
         <v>5.8799892847575679</v>
       </c>
-      <c r="J300" s="68">
-        <f t="shared" si="76"/>
+      <c r="J300" s="55">
+        <f t="shared" si="90"/>
         <v>3.5870458010371267</v>
       </c>
-      <c r="K300" s="68">
-        <f t="shared" si="77"/>
+      <c r="K300" s="55">
+        <f t="shared" si="91"/>
         <v>0.53805687015556902</v>
       </c>
       <c r="L300" t="s">
@@ -19560,7 +19690,7 @@
         <v>52</v>
       </c>
       <c r="D301" s="4">
-        <f>VLOOKUP(C301,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="92"/>
         <v>53184000</v>
       </c>
       <c r="E301" s="4">
@@ -19568,27 +19698,27 @@
         <v>3212</v>
       </c>
       <c r="F301" s="4">
-        <f>E301*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="88"/>
         <v>1959.4578416661666</v>
       </c>
       <c r="G301" s="4">
-        <f>F301*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="87"/>
         <v>1665.5391654162415</v>
       </c>
       <c r="H301" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>293.91867624992506</v>
       </c>
-      <c r="I301" s="68">
-        <f t="shared" ref="I301:I315" si="79">E301/D301*1000000</f>
+      <c r="I301" s="55">
+        <f t="shared" ref="I301:I315" si="94">E301/D301*1000000</f>
         <v>60.394103489771354</v>
       </c>
-      <c r="J301" s="68">
-        <f t="shared" si="76"/>
+      <c r="J301" s="55">
+        <f t="shared" si="90"/>
         <v>36.842994917008248</v>
       </c>
-      <c r="K301" s="68">
-        <f t="shared" si="77"/>
+      <c r="K301" s="55">
+        <f t="shared" si="91"/>
         <v>5.5264492375512377</v>
       </c>
       <c r="L301" t="s">
@@ -19603,7 +19733,7 @@
         <v>53</v>
       </c>
       <c r="D302" s="4">
-        <f>VLOOKUP(C302,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="92"/>
         <v>45194000</v>
       </c>
       <c r="E302" s="4">
@@ -19611,27 +19741,27 @@
         <v>9240</v>
       </c>
       <c r="F302" s="4">
-        <f>E302*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="88"/>
         <v>5636.7965308204793</v>
       </c>
       <c r="G302" s="4">
-        <f>F302*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="87"/>
         <v>4791.2770511974077</v>
       </c>
       <c r="H302" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>845.51947962307167</v>
       </c>
-      <c r="I302" s="68">
-        <f t="shared" si="79"/>
+      <c r="I302" s="55">
+        <f t="shared" si="94"/>
         <v>204.45191839624729</v>
       </c>
-      <c r="J302" s="68">
-        <f t="shared" si="76"/>
+      <c r="J302" s="55">
+        <f t="shared" si="90"/>
         <v>124.72444419216002</v>
       </c>
-      <c r="K302" s="68">
-        <f t="shared" si="77"/>
+      <c r="K302" s="55">
+        <f t="shared" si="91"/>
         <v>18.708666628823995</v>
       </c>
       <c r="L302" t="s">
@@ -19646,7 +19776,7 @@
         <v>54</v>
       </c>
       <c r="D303" s="4">
-        <f>VLOOKUP(C303,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="92"/>
         <v>41153000</v>
       </c>
       <c r="E303" s="4">
@@ -19654,27 +19784,27 @@
         <v>23501</v>
       </c>
       <c r="F303" s="4">
-        <f>E303*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="88"/>
         <v>14336.618535802172</v>
       </c>
       <c r="G303" s="4">
-        <f>F303*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="87"/>
         <v>12186.125755431845</v>
       </c>
       <c r="H303" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>2150.4927803703267</v>
       </c>
-      <c r="I303" s="68">
-        <f t="shared" si="79"/>
+      <c r="I303" s="55">
+        <f t="shared" si="94"/>
         <v>571.0640779530047</v>
       </c>
-      <c r="J303" s="68">
-        <f t="shared" si="76"/>
+      <c r="J303" s="55">
+        <f t="shared" si="90"/>
         <v>348.37359453265066</v>
       </c>
-      <c r="K303" s="68">
-        <f t="shared" si="77"/>
+      <c r="K303" s="55">
+        <f t="shared" si="91"/>
         <v>52.25603917989762</v>
       </c>
       <c r="L303" t="s">
@@ -19689,7 +19819,7 @@
         <v>55</v>
       </c>
       <c r="D304" s="4">
-        <f>VLOOKUP(C304,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="92"/>
         <v>64105000</v>
       </c>
       <c r="E304" s="4">
@@ -19697,27 +19827,27 @@
         <v>110689</v>
       </c>
       <c r="F304" s="4">
-        <f>E304*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="88"/>
         <v>67525.040173158879</v>
       </c>
       <c r="G304" s="4">
-        <f>F304*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="87"/>
         <v>57396.284147185048</v>
       </c>
       <c r="H304" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>10128.756025973831</v>
       </c>
-      <c r="I304" s="68">
-        <f t="shared" si="79"/>
+      <c r="I304" s="55">
+        <f t="shared" si="94"/>
         <v>1726.68278605413</v>
       </c>
-      <c r="J304" s="68">
-        <f t="shared" si="76"/>
+      <c r="J304" s="55">
+        <f t="shared" si="90"/>
         <v>1053.350599378502</v>
       </c>
-      <c r="K304" s="68">
-        <f t="shared" si="77"/>
+      <c r="K304" s="55">
+        <f t="shared" si="91"/>
         <v>158.00258990677531</v>
       </c>
       <c r="L304" t="s">
@@ -19732,7 +19862,7 @@
         <v>56</v>
       </c>
       <c r="D305" s="4">
-        <f>VLOOKUP(C305,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="92"/>
         <v>32455000</v>
       </c>
       <c r="E305" s="4">
@@ -19740,27 +19870,27 @@
         <v>147568</v>
       </c>
       <c r="F305" s="4">
-        <f>E305*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="88"/>
         <v>90022.812820358929</v>
       </c>
       <c r="G305" s="4">
-        <f>F305*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="87"/>
         <v>76519.390897305086</v>
       </c>
       <c r="H305" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>13503.421923053844</v>
       </c>
-      <c r="I305" s="68">
-        <f t="shared" si="79"/>
+      <c r="I305" s="55">
+        <f t="shared" si="94"/>
         <v>4546.8494839007853</v>
       </c>
-      <c r="J305" s="68">
-        <f t="shared" si="76"/>
+      <c r="J305" s="55">
+        <f t="shared" si="90"/>
         <v>2773.7733113652421</v>
       </c>
-      <c r="K305" s="68">
-        <f t="shared" si="77"/>
+      <c r="K305" s="55">
+        <f t="shared" si="91"/>
         <v>416.06599670478641</v>
       </c>
       <c r="L305" t="s">
@@ -19775,7 +19905,7 @@
         <v>57</v>
       </c>
       <c r="D306" s="4">
-        <f>VLOOKUP(C306,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="92"/>
         <v>15785000</v>
       </c>
       <c r="E306" s="4">
@@ -19783,27 +19913,27 @@
         <v>176763</v>
       </c>
       <c r="F306" s="4">
-        <f>E306*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="88"/>
         <v>107833.01571184203</v>
       </c>
       <c r="G306" s="4">
-        <f>F306*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="87"/>
         <v>91658.063355065722</v>
       </c>
       <c r="H306" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>16174.95235677631</v>
       </c>
-      <c r="I306" s="68">
-        <f t="shared" si="79"/>
+      <c r="I306" s="55">
+        <f t="shared" si="94"/>
         <v>11198.16281279696</v>
       </c>
-      <c r="J306" s="68">
-        <f t="shared" si="76"/>
+      <c r="J306" s="55">
+        <f t="shared" si="90"/>
         <v>6831.3598803827708</v>
       </c>
-      <c r="K306" s="68">
-        <f t="shared" si="77"/>
+      <c r="K306" s="55">
+        <f t="shared" si="91"/>
         <v>1024.7039820574159</v>
       </c>
       <c r="L306" t="s">
@@ -19818,7 +19948,7 @@
         <v>58</v>
       </c>
       <c r="D307" s="4">
-        <f>VLOOKUP(C307,AGE_POP,3,FALSE)</f>
+        <f t="shared" si="92"/>
         <v>6063000</v>
       </c>
       <c r="E307" s="4">
@@ -19826,27 +19956,27 @@
         <v>187342</v>
       </c>
       <c r="F307" s="4">
-        <f>E307*CDC_ANUALIZATION_FACTOR</f>
+        <f t="shared" si="88"/>
         <v>114286.65970529981</v>
       </c>
       <c r="G307" s="4">
-        <f>F307*TREATMENT_REDUCTION_FACTOR</f>
+        <f t="shared" si="87"/>
         <v>97143.660749504837</v>
       </c>
       <c r="H307" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>17142.998955794974</v>
       </c>
-      <c r="I307" s="68">
-        <f t="shared" si="79"/>
+      <c r="I307" s="55">
+        <f t="shared" si="94"/>
         <v>30899.22480620155</v>
       </c>
-      <c r="J307" s="68">
-        <f t="shared" si="76"/>
+      <c r="J307" s="55">
+        <f t="shared" si="90"/>
         <v>18849.853159376515</v>
       </c>
-      <c r="K307" s="68">
-        <f t="shared" si="77"/>
+      <c r="K307" s="55">
+        <f t="shared" si="91"/>
         <v>2827.4779739064779</v>
       </c>
       <c r="L307" t="s">
@@ -19874,18 +20004,18 @@
         <v>0</v>
       </c>
       <c r="H308" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>18132.5</v>
       </c>
-      <c r="I308" s="68">
-        <f t="shared" si="79"/>
+      <c r="I308" s="55">
+        <f t="shared" si="94"/>
         <v>80.550339733801721</v>
       </c>
-      <c r="J308" s="68">
-        <f t="shared" si="76"/>
+      <c r="J308" s="55">
+        <f t="shared" si="90"/>
         <v>100.68792466725216</v>
       </c>
-      <c r="K308" s="68"/>
+      <c r="K308" s="55"/>
       <c r="L308" t="s">
         <v>222</v>
       </c>
@@ -19905,25 +20035,25 @@
         <v>72530</v>
       </c>
       <c r="F309" s="4">
-        <f t="shared" ref="F309" si="80">E309+3/12*E309</f>
+        <f t="shared" ref="F309" si="95">E309+3/12*E309</f>
         <v>90662.5</v>
       </c>
       <c r="G309" s="7">
         <v>0</v>
       </c>
       <c r="H309" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>90662.5</v>
       </c>
-      <c r="I309" s="68">
-        <f t="shared" si="79"/>
+      <c r="I309" s="55">
+        <f t="shared" si="94"/>
         <v>402.75169866900865</v>
       </c>
-      <c r="J309" s="68">
-        <f t="shared" si="76"/>
+      <c r="J309" s="55">
+        <f t="shared" si="90"/>
         <v>503.43962333626081</v>
       </c>
-      <c r="K309" s="68"/>
+      <c r="K309" s="55"/>
       <c r="L309" t="s">
         <v>222</v>
       </c>
@@ -19950,19 +20080,19 @@
         <v>0</v>
       </c>
       <c r="H310" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>181325</v>
       </c>
-      <c r="I310" s="68">
-        <f t="shared" si="79"/>
+      <c r="I310" s="55">
+        <f t="shared" si="94"/>
         <v>805.50339733801729</v>
       </c>
-      <c r="J310" s="68">
-        <f t="shared" si="76"/>
+      <c r="J310" s="55">
+        <f t="shared" si="90"/>
         <v>1006.8792466725216</v>
       </c>
-      <c r="K310" s="68">
-        <f t="shared" ref="K310:K326" si="81">H310/D310*1000000</f>
+      <c r="K310" s="55">
+        <f t="shared" ref="K310:K315" si="96">H310/D310*1000000</f>
         <v>1006.8792466725216</v>
       </c>
       <c r="L310" t="s">
@@ -19989,19 +20119,19 @@
         <v>0</v>
       </c>
       <c r="H311" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>50000000</v>
       </c>
-      <c r="I311" s="68">
-        <f t="shared" si="79"/>
+      <c r="I311" s="55">
+        <f t="shared" si="94"/>
         <v>27777.777777777777</v>
       </c>
-      <c r="J311" s="68">
-        <f t="shared" si="76"/>
+      <c r="J311" s="55">
+        <f t="shared" si="90"/>
         <v>27777.777777777777</v>
       </c>
-      <c r="K311" s="68">
-        <f t="shared" si="81"/>
+      <c r="K311" s="55">
+        <f t="shared" si="96"/>
         <v>27777.777777777777</v>
       </c>
       <c r="L311" t="s">
@@ -20028,19 +20158,19 @@
         <v>0</v>
       </c>
       <c r="H312" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>50000000</v>
       </c>
-      <c r="I312" s="68">
-        <f t="shared" si="79"/>
+      <c r="I312" s="55">
+        <f t="shared" si="94"/>
         <v>250000</v>
       </c>
-      <c r="J312" s="68">
-        <f t="shared" si="76"/>
+      <c r="J312" s="55">
+        <f t="shared" si="90"/>
         <v>250000</v>
       </c>
-      <c r="K312" s="68">
-        <f t="shared" si="81"/>
+      <c r="K312" s="55">
+        <f t="shared" si="96"/>
         <v>250000</v>
       </c>
       <c r="L312" t="s">
@@ -20067,19 +20197,19 @@
         <v>0</v>
       </c>
       <c r="H313" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>200000000</v>
       </c>
-      <c r="I313" s="68">
-        <f t="shared" si="79"/>
+      <c r="I313" s="55">
+        <f t="shared" si="94"/>
         <v>555555.55555555562</v>
       </c>
-      <c r="J313" s="68">
-        <f t="shared" si="76"/>
+      <c r="J313" s="55">
+        <f t="shared" si="90"/>
         <v>555555.55555555562</v>
       </c>
-      <c r="K313" s="68">
-        <f t="shared" si="81"/>
+      <c r="K313" s="55">
+        <f t="shared" si="96"/>
         <v>555555.55555555562</v>
       </c>
       <c r="L313" t="s">
@@ -20106,19 +20236,19 @@
         <v>0</v>
       </c>
       <c r="H314" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>56000000</v>
       </c>
-      <c r="I314" s="68">
-        <f t="shared" si="79"/>
+      <c r="I314" s="55">
+        <f t="shared" si="94"/>
         <v>900000</v>
       </c>
-      <c r="J314" s="68">
-        <f t="shared" si="76"/>
+      <c r="J314" s="55">
+        <f t="shared" si="90"/>
         <v>900000</v>
       </c>
-      <c r="K314" s="68">
-        <f t="shared" si="81"/>
+      <c r="K314" s="55">
+        <f t="shared" si="96"/>
         <v>900000</v>
       </c>
       <c r="L314" t="s">
@@ -20129,7 +20259,7 @@
       <c r="B315" t="s">
         <v>223</v>
       </c>
-      <c r="C315" s="59" t="s">
+      <c r="C315" s="46" t="s">
         <v>21</v>
       </c>
       <c r="D315" s="4">
@@ -20145,19 +20275,19 @@
         <v>0</v>
       </c>
       <c r="H315" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>61000</v>
       </c>
-      <c r="I315" s="68">
-        <f t="shared" si="79"/>
+      <c r="I315" s="55">
+        <f t="shared" si="94"/>
         <v>186.43031784841074</v>
       </c>
-      <c r="J315" s="68">
-        <f t="shared" si="76"/>
+      <c r="J315" s="55">
+        <f t="shared" si="90"/>
         <v>186.43031784841074</v>
       </c>
-      <c r="K315" s="68">
-        <f t="shared" si="81"/>
+      <c r="K315" s="55">
+        <f t="shared" si="96"/>
         <v>186.43031784841074</v>
       </c>
       <c r="L315">
@@ -20186,11 +20316,11 @@
         <v>0</v>
       </c>
       <c r="H316" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>103.08275034321647</v>
       </c>
-      <c r="I316" s="68">
-        <f>VLOOKUP(C316,CausesOfDeath,3,FALSE)</f>
+      <c r="I316" s="55">
+        <f t="shared" ref="I316:I329" si="97">VLOOKUP(C316,CausesOfDeath,3,FALSE)</f>
         <v>0.31708013024674403</v>
       </c>
       <c r="J316" s="11">
@@ -20216,30 +20346,30 @@
         <v>325100000</v>
       </c>
       <c r="E317" s="4">
-        <f t="shared" ref="E317:E329" si="82">I317/1000000*D317</f>
+        <f t="shared" ref="E317:E329" si="98">I317/1000000*D317</f>
         <v>1629.7968482274014</v>
       </c>
       <c r="F317" s="4">
-        <f t="shared" ref="F317:F329" si="83">E317</f>
+        <f t="shared" ref="F317:F329" si="99">E317</f>
         <v>1629.7968482274014</v>
       </c>
       <c r="G317" s="7">
         <v>0</v>
       </c>
       <c r="H317" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>1629.7968482274014</v>
       </c>
-      <c r="I317" s="68">
-        <f>VLOOKUP(C317,CausesOfDeath,3,FALSE)</f>
+      <c r="I317" s="55">
+        <f t="shared" si="97"/>
         <v>5.0132170046982507</v>
       </c>
       <c r="J317" s="11">
-        <f t="shared" ref="J317:K317" si="84">I317</f>
+        <f t="shared" ref="J317:K317" si="100">I317</f>
         <v>5.0132170046982507</v>
       </c>
       <c r="K317" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="100"/>
         <v>5.0132170046982507</v>
       </c>
       <c r="L317">
@@ -20257,30 +20387,30 @@
         <v>325100000</v>
       </c>
       <c r="E318" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>3758.2014884459049</v>
       </c>
       <c r="F318" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="99"/>
         <v>3758.2014884459049</v>
       </c>
       <c r="G318" s="7">
         <v>0</v>
       </c>
       <c r="H318" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>3758.2014884459049</v>
       </c>
-      <c r="I318" s="68">
-        <f>VLOOKUP(C318,CausesOfDeath,3,FALSE)</f>
+      <c r="I318" s="55">
+        <f t="shared" si="97"/>
         <v>11.5601399213962</v>
       </c>
       <c r="J318" s="11">
-        <f t="shared" ref="J318:K318" si="85">I318</f>
+        <f t="shared" ref="J318:K318" si="101">I318</f>
         <v>11.5601399213962</v>
       </c>
       <c r="K318" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="101"/>
         <v>11.5601399213962</v>
       </c>
       <c r="L318">
@@ -20298,30 +20428,30 @@
         <v>325100000</v>
       </c>
       <c r="E319" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>4138.0398041314456</v>
       </c>
       <c r="F319" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="99"/>
         <v>4138.0398041314456</v>
       </c>
       <c r="G319" s="7">
         <v>0</v>
       </c>
       <c r="H319" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>4138.0398041314456</v>
       </c>
-      <c r="I319" s="68">
-        <f>VLOOKUP(C319,CausesOfDeath,3,FALSE)</f>
+      <c r="I319" s="55">
+        <f t="shared" si="97"/>
         <v>12.7285137008042</v>
       </c>
       <c r="J319" s="11">
-        <f t="shared" ref="J319:K319" si="86">I319</f>
+        <f t="shared" ref="J319:K319" si="102">I319</f>
         <v>12.7285137008042</v>
       </c>
       <c r="K319" s="11">
-        <f t="shared" si="86"/>
+        <f t="shared" si="102"/>
         <v>12.7285137008042</v>
       </c>
       <c r="L319">
@@ -20339,30 +20469,30 @@
         <v>325100000</v>
       </c>
       <c r="E320" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>10538.699339224408</v>
       </c>
       <c r="F320" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="99"/>
         <v>10538.699339224408</v>
       </c>
       <c r="G320" s="7">
         <v>0</v>
       </c>
       <c r="H320" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>10538.699339224408</v>
       </c>
-      <c r="I320" s="68">
-        <f>VLOOKUP(C320,CausesOfDeath,3,FALSE)</f>
+      <c r="I320" s="55">
+        <f t="shared" si="97"/>
         <v>32.416792799828997</v>
       </c>
       <c r="J320" s="11">
-        <f t="shared" ref="J320:K320" si="87">I320</f>
+        <f t="shared" ref="J320:K320" si="103">I320</f>
         <v>32.416792799828997</v>
       </c>
       <c r="K320" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="103"/>
         <v>32.416792799828997</v>
       </c>
       <c r="L320">
@@ -20380,30 +20510,30 @@
         <v>325100000</v>
       </c>
       <c r="E321" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>34460.6</v>
       </c>
       <c r="F321" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="99"/>
         <v>34460.6</v>
       </c>
       <c r="G321" s="7">
         <v>0</v>
       </c>
       <c r="H321" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>34460.6</v>
       </c>
-      <c r="I321" s="68">
-        <f>VLOOKUP(C321,CausesOfDeath,3,FALSE)</f>
+      <c r="I321" s="55">
+        <f t="shared" si="97"/>
         <v>106</v>
       </c>
       <c r="J321" s="11">
-        <f t="shared" ref="J321:K321" si="88">I321</f>
+        <f t="shared" ref="J321:K321" si="104">I321</f>
         <v>106</v>
       </c>
       <c r="K321" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="104"/>
         <v>106</v>
       </c>
       <c r="L321">
@@ -20421,30 +20551,30 @@
         <v>325100000</v>
       </c>
       <c r="E322" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>41729.044960010571</v>
       </c>
       <c r="F322" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="99"/>
         <v>41729.044960010571</v>
       </c>
       <c r="G322" s="7">
         <v>0</v>
       </c>
       <c r="H322" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>41729.044960010571</v>
       </c>
-      <c r="I322" s="68">
-        <f>VLOOKUP(C322,CausesOfDeath,3,FALSE)</f>
+      <c r="I322" s="55">
+        <f t="shared" si="97"/>
         <v>128.35756677948501</v>
       </c>
       <c r="J322" s="11">
-        <f t="shared" ref="J322:K322" si="89">I322</f>
+        <f t="shared" ref="J322:K322" si="105">I322</f>
         <v>128.35756677948501</v>
       </c>
       <c r="K322" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="105"/>
         <v>128.35756677948501</v>
       </c>
       <c r="L322">
@@ -20462,30 +20592,30 @@
         <v>325100000</v>
       </c>
       <c r="E323" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>67295.7</v>
       </c>
       <c r="F323" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="99"/>
         <v>67295.7</v>
       </c>
       <c r="G323" s="7">
         <v>0</v>
       </c>
       <c r="H323" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>67295.7</v>
       </c>
-      <c r="I323" s="68">
-        <f>VLOOKUP(C323,CausesOfDeath,3,FALSE)</f>
+      <c r="I323" s="55">
+        <f t="shared" si="97"/>
         <v>207</v>
       </c>
       <c r="J323" s="11">
-        <f t="shared" ref="J323:K323" si="90">I323</f>
+        <f t="shared" ref="J323:K323" si="106">I323</f>
         <v>207</v>
       </c>
       <c r="K323" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="106"/>
         <v>207</v>
       </c>
       <c r="L323">
@@ -20503,30 +20633,30 @@
         <v>325100000</v>
       </c>
       <c r="E324" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>71494.751021250369</v>
       </c>
       <c r="F324" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="99"/>
         <v>71494.751021250369</v>
       </c>
       <c r="G324" s="7">
         <v>0</v>
       </c>
       <c r="H324" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>71494.751021250369</v>
       </c>
-      <c r="I324" s="68">
-        <f>VLOOKUP(C324,CausesOfDeath,3,FALSE)</f>
+      <c r="I324" s="55">
+        <f t="shared" si="97"/>
         <v>219.91618277837699</v>
       </c>
       <c r="J324" s="11">
-        <f t="shared" ref="J324:K324" si="91">I324</f>
+        <f t="shared" ref="J324:K324" si="107">I324</f>
         <v>219.91618277837699</v>
       </c>
       <c r="K324" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="107"/>
         <v>219.91618277837699</v>
       </c>
       <c r="L324">
@@ -20544,30 +20674,30 @@
         <v>325100000</v>
       </c>
       <c r="E325" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>125013.82658165094</v>
       </c>
       <c r="F325" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="99"/>
         <v>125013.82658165094</v>
       </c>
       <c r="G325" s="7">
         <v>0</v>
       </c>
       <c r="H325" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>125013.82658165094</v>
       </c>
-      <c r="I325" s="68">
-        <f>VLOOKUP(C325,CausesOfDeath,3,FALSE)</f>
+      <c r="I325" s="55">
+        <f t="shared" si="97"/>
         <v>384.53960806413698</v>
       </c>
       <c r="J325" s="11">
-        <f t="shared" ref="J325:K325" si="92">I325</f>
+        <f t="shared" ref="J325:K325" si="108">I325</f>
         <v>384.53960806413698</v>
       </c>
       <c r="K325" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="108"/>
         <v>384.53960806413698</v>
       </c>
       <c r="L325">
@@ -20585,30 +20715,30 @@
         <v>325100000</v>
       </c>
       <c r="E326" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>233911.33570493985</v>
       </c>
       <c r="F326" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="99"/>
         <v>233911.33570493985</v>
       </c>
       <c r="G326" s="7">
         <v>0</v>
       </c>
       <c r="H326" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>233911.33570493985</v>
       </c>
-      <c r="I326" s="68">
-        <f>VLOOKUP(C326,CausesOfDeath,3,FALSE)</f>
+      <c r="I326" s="55">
+        <f t="shared" si="97"/>
         <v>719.50580038431201</v>
       </c>
       <c r="J326" s="11">
-        <f t="shared" ref="J326:K326" si="93">I326</f>
+        <f t="shared" ref="J326:K326" si="109">I326</f>
         <v>719.50580038431201</v>
       </c>
       <c r="K326" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="109"/>
         <v>719.50580038431201</v>
       </c>
       <c r="L326">
@@ -20626,30 +20756,30 @@
         <v>325100000</v>
       </c>
       <c r="E327" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>245793.48942697034</v>
       </c>
       <c r="F327" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="99"/>
         <v>245793.48942697034</v>
       </c>
       <c r="G327" s="7">
         <v>0</v>
       </c>
       <c r="H327" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>245793.48942697034</v>
       </c>
-      <c r="I327" s="68">
-        <f>VLOOKUP(C327,CausesOfDeath,3,FALSE)</f>
+      <c r="I327" s="55">
+        <f t="shared" si="97"/>
         <v>756.05502745915203</v>
       </c>
       <c r="J327" s="11">
-        <f t="shared" ref="J327:K327" si="94">I327</f>
+        <f t="shared" ref="J327:K327" si="110">I327</f>
         <v>756.05502745915203</v>
       </c>
       <c r="K327" s="11">
-        <f t="shared" si="94"/>
+        <f t="shared" si="110"/>
         <v>756.05502745915203</v>
       </c>
       <c r="L327">
@@ -20667,30 +20797,30 @@
         <v>325100000</v>
       </c>
       <c r="E328" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>414969.42655153089</v>
       </c>
       <c r="F328" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="99"/>
         <v>414969.42655153089</v>
       </c>
       <c r="G328" s="7">
         <v>0</v>
       </c>
       <c r="H328" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>414969.42655153089</v>
       </c>
-      <c r="I328" s="68">
-        <f>VLOOKUP(C328,CausesOfDeath,3,FALSE)</f>
+      <c r="I328" s="55">
+        <f t="shared" si="97"/>
         <v>1276.43625515697</v>
       </c>
       <c r="J328" s="11">
-        <f t="shared" ref="J328:K328" si="95">I328</f>
+        <f t="shared" ref="J328:K328" si="111">I328</f>
         <v>1276.43625515697</v>
       </c>
       <c r="K328" s="11">
-        <f t="shared" si="95"/>
+        <f t="shared" si="111"/>
         <v>1276.43625515697</v>
       </c>
       <c r="L328">
@@ -20708,30 +20838,30 @@
         <v>325100000</v>
       </c>
       <c r="E329" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>491191.93832677446</v>
       </c>
       <c r="F329" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="99"/>
         <v>491191.93832677446</v>
       </c>
       <c r="G329" s="7">
         <v>0</v>
       </c>
       <c r="H329" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>491191.93832677446</v>
       </c>
-      <c r="I329" s="68">
-        <f>VLOOKUP(C329,CausesOfDeath,3,FALSE)</f>
+      <c r="I329" s="55">
+        <f t="shared" si="97"/>
         <v>1510.89491949177</v>
       </c>
       <c r="J329" s="11">
-        <f t="shared" ref="J329:K329" si="96">I329</f>
+        <f t="shared" ref="J329:K329" si="112">I329</f>
         <v>1510.89491949177</v>
       </c>
       <c r="K329" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="112"/>
         <v>1510.89491949177</v>
       </c>
       <c r="L329">
@@ -20760,19 +20890,19 @@
         <v>0</v>
       </c>
       <c r="H330" s="7" t="e">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>#REF!</v>
       </c>
-      <c r="I330" s="68" t="e">
-        <f t="shared" ref="I330" si="97">E330/D330*1000000</f>
+      <c r="I330" s="55" t="e">
+        <f t="shared" ref="I330" si="113">E330/D330*1000000</f>
         <v>#REF!</v>
       </c>
-      <c r="J330" s="68" t="e">
-        <f t="shared" ref="J330" si="98">F330/D330*1000000</f>
+      <c r="J330" s="55" t="e">
+        <f t="shared" ref="J330" si="114">F330/D330*1000000</f>
         <v>#REF!</v>
       </c>
-      <c r="K330" s="68" t="e">
-        <f t="shared" ref="K330" si="99">H330/D330*1000000</f>
+      <c r="K330" s="55" t="e">
+        <f t="shared" ref="K330" si="115">H330/D330*1000000</f>
         <v>#REF!</v>
       </c>
       <c r="L330" t="s">
@@ -20780,78 +20910,78 @@
       </c>
     </row>
     <row r="348" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C348" s="93" t="s">
+      <c r="C348" s="80" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="349" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C349" s="82" t="s">
+      <c r="C349" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="D349" s="82" t="s">
+      <c r="D349" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="E349" s="82" t="s">
+      <c r="E349" s="69" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="350" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C350" s="58" t="s">
+      <c r="C350" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="D350" s="57" t="s">
+      <c r="D350" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="E350" s="85">
+      <c r="E350" s="72">
         <v>0.31708013024674403</v>
       </c>
     </row>
     <row r="351" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C351" s="60" t="s">
+      <c r="C351" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D351" s="59" t="s">
+      <c r="D351" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="E351" s="86">
+      <c r="E351" s="73">
         <v>5.0132170046982507</v>
       </c>
     </row>
     <row r="352" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C352" s="58" t="s">
+      <c r="C352" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="D352" s="57" t="s">
+      <c r="D352" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="E352" s="85">
+      <c r="E352" s="72">
         <v>11.5601399213962</v>
       </c>
     </row>
     <row r="353" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C353" s="60" t="s">
+      <c r="C353" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D353" s="59" t="s">
+      <c r="D353" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="E353" s="86">
+      <c r="E353" s="73">
         <v>12.7285137008042</v>
       </c>
     </row>
     <row r="354" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C354" s="58" t="s">
+      <c r="C354" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="D354" s="57" t="s">
+      <c r="D354" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="E354" s="81">
+      <c r="E354" s="68">
         <v>32.416792799828997</v>
       </c>
     </row>
     <row r="355" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C355" s="58" t="s">
+      <c r="C355" s="45" t="s">
         <v>161</v>
       </c>
       <c r="D355" t="s">
@@ -20863,219 +20993,219 @@
       </c>
     </row>
     <row r="356" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C356" s="58" t="s">
+      <c r="C356" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="D356" s="58" t="s">
+      <c r="D356" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="E356" s="72">
+      <c r="E356" s="59">
         <v>100.68792466725216</v>
       </c>
     </row>
     <row r="357" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C357" s="71" t="s">
+      <c r="C357" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="D357" s="71" t="s">
+      <c r="D357" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="E357" s="76">
+      <c r="E357" s="63">
         <v>100.68792466725216</v>
       </c>
     </row>
     <row r="358" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C358" s="60" t="s">
+      <c r="C358" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D358" s="60" t="s">
+      <c r="D358" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="E358" s="76">
+      <c r="E358" s="63">
         <v>106</v>
       </c>
     </row>
     <row r="359" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C359" s="58" t="s">
+      <c r="C359" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="D359" s="57" t="s">
+      <c r="D359" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E359" s="73">
+      <c r="E359" s="60">
         <v>128.35756677948501</v>
       </c>
     </row>
     <row r="360" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C360" s="60" t="s">
+      <c r="C360" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="D360" s="60" t="s">
+      <c r="D360" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="E360" s="76">
+      <c r="E360" s="63">
         <f>$K$4</f>
         <v>183.35458014004848</v>
       </c>
     </row>
     <row r="361" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C361" s="60" t="s">
+      <c r="C361" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D361" s="60" t="s">
+      <c r="D361" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E361" s="76">
+      <c r="E361" s="63">
         <v>207</v>
       </c>
     </row>
     <row r="362" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C362" s="60" t="s">
+      <c r="C362" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D362" s="60" t="s">
+      <c r="D362" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E362" s="75">
+      <c r="E362" s="62">
         <v>186.43031784841074</v>
       </c>
     </row>
     <row r="363" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C363" s="58" t="s">
+      <c r="C363" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="D363" s="58" t="s">
+      <c r="D363" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E363" s="73">
+      <c r="E363" s="60">
         <v>219.91618277837699</v>
       </c>
     </row>
     <row r="364" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C364" s="60" t="s">
+      <c r="C364" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="D364" s="71" t="s">
+      <c r="D364" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="E364" s="88">
+      <c r="E364" s="75">
         <f>$J$6</f>
         <v>322.41110875094552</v>
       </c>
     </row>
     <row r="365" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C365" s="60" t="s">
+      <c r="C365" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="D365" s="70" t="s">
+      <c r="D365" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="E365" s="91">
+      <c r="E365" s="78">
         <v>503.43962333626081</v>
       </c>
     </row>
     <row r="366" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C366" s="60" t="s">
+      <c r="C366" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D366" s="60" t="s">
+      <c r="D366" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E366" s="76">
+      <c r="E366" s="63">
         <v>384.53960806413698</v>
       </c>
     </row>
     <row r="367" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C367" s="71" t="s">
+      <c r="C367" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="D367" s="71" t="s">
+      <c r="D367" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="E367" s="76">
+      <c r="E367" s="63">
         <v>503.43962333626081</v>
       </c>
     </row>
     <row r="368" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C368" s="58" t="s">
+      <c r="C368" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="D368" s="58" t="s">
+      <c r="D368" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="E368" s="72">
+      <c r="E368" s="59">
         <v>1006.8792466725216</v>
       </c>
     </row>
     <row r="369" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C369" s="58" t="s">
+      <c r="C369" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="D369" s="58" t="s">
+      <c r="D369" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E369" s="73">
+      <c r="E369" s="60">
         <v>719.50580038431201</v>
       </c>
     </row>
     <row r="370" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C370" s="60" t="s">
+      <c r="C370" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D370" s="60" t="s">
+      <c r="D370" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="E370" s="76">
+      <c r="E370" s="63">
         <v>756.05502745915203</v>
       </c>
     </row>
     <row r="371" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C371" s="60" t="s">
+      <c r="C371" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="D371" s="58" t="s">
+      <c r="D371" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="E371" s="73">
+      <c r="E371" s="60">
         <f>$J$4</f>
         <v>1222.3638676003236</v>
       </c>
     </row>
     <row r="372" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C372" s="90" t="s">
+      <c r="C372" s="77" t="s">
         <v>223</v>
       </c>
-      <c r="D372" s="90" t="s">
+      <c r="D372" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="E372" s="92">
+      <c r="E372" s="79">
         <v>1276.43625515697</v>
       </c>
     </row>
     <row r="373" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C373" s="83"/>
-      <c r="D373" s="83"/>
-      <c r="E373" s="87"/>
+      <c r="C373" s="70"/>
+      <c r="D373" s="70"/>
+      <c r="E373" s="74"/>
     </row>
     <row r="374" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C374" s="70" t="s">
+      <c r="C374" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="D374" s="70" t="s">
+      <c r="D374" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E374" s="87">
+      <c r="E374" s="74">
         <v>1510.89491949177</v>
       </c>
     </row>
     <row r="375" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C375" s="70" t="s">
+      <c r="C375" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="D375" s="70" t="s">
+      <c r="D375" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="E375" s="76">
+      <c r="E375" s="63">
         <f>$I$4</f>
         <v>2003.7342265009818</v>
       </c>
@@ -21113,7 +21243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D124D01-03B6-4D29-9D39-7C3A7E69CA33}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
@@ -22861,7 +22991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02ADD439-80F6-4230-8FF9-C51FAA6DDE71}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -22890,30 +23020,30 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="45"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="82"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
     </row>
     <row r="4" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="13" t="s">
         <v>63</v>
       </c>
@@ -22925,10 +23055,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="14">
         <v>330730</v>
       </c>
@@ -22964,7 +23094,7 @@
       <c r="E6" s="19">
         <v>3748</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="53" t="s">
         <v>51</v>
       </c>
       <c r="I6" s="24">
@@ -22992,7 +23122,7 @@
       <c r="E7" s="22">
         <v>3792</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="53" t="s">
         <v>52</v>
       </c>
       <c r="I7" s="24">
@@ -23020,7 +23150,7 @@
       <c r="E8" s="22">
         <v>3890</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="53" t="s">
         <v>53</v>
       </c>
       <c r="I8" s="24">
@@ -23048,7 +23178,7 @@
       <c r="E9" s="22">
         <v>3983</v>
       </c>
-      <c r="H9" s="66" t="s">
+      <c r="H9" s="53" t="s">
         <v>54</v>
       </c>
       <c r="I9" s="24">
@@ -23076,7 +23206,7 @@
       <c r="E10" s="22">
         <v>4067</v>
       </c>
-      <c r="H10" s="66" t="s">
+      <c r="H10" s="53" t="s">
         <v>55</v>
       </c>
       <c r="I10" s="24">
@@ -23104,7 +23234,7 @@
       <c r="E11" s="22">
         <v>4097</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="53" t="s">
         <v>56</v>
       </c>
       <c r="I11" s="24">
@@ -23132,7 +23262,7 @@
       <c r="E12" s="22">
         <v>4068</v>
       </c>
-      <c r="H12" s="66" t="s">
+      <c r="H12" s="53" t="s">
         <v>57</v>
       </c>
       <c r="I12" s="24">
@@ -23160,7 +23290,7 @@
       <c r="E13" s="22">
         <v>4074</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="53" t="s">
         <v>58</v>
       </c>
       <c r="I13" s="24">
@@ -23191,8 +23321,8 @@
       <c r="H14" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65">
+      <c r="I14" s="51"/>
+      <c r="J14" s="52">
         <f>SUBTOTAL(109,Table1[Pop])</f>
         <v>332599000</v>
       </c>
@@ -24507,10 +24637,10 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="44" t="s">
+      <c r="A92" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="B92" s="45"/>
+      <c r="B92" s="82"/>
       <c r="C92" s="14">
         <v>163809</v>
       </c>
@@ -25984,10 +26114,10 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="44" t="s">
+      <c r="A179" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="B179" s="45"/>
+      <c r="B179" s="82"/>
       <c r="C179" s="14">
         <v>166921</v>
       </c>
@@ -27461,22 +27591,22 @@
       </c>
     </row>
     <row r="266" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="46" t="s">
+      <c r="A266" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="B266" s="47"/>
-      <c r="C266" s="47"/>
-      <c r="D266" s="47"/>
-      <c r="E266" s="48"/>
+      <c r="B266" s="84"/>
+      <c r="C266" s="84"/>
+      <c r="D266" s="84"/>
+      <c r="E266" s="85"/>
     </row>
     <row r="267" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="44" t="s">
+      <c r="A267" s="81" t="s">
         <v>155</v>
       </c>
-      <c r="B267" s="49"/>
-      <c r="C267" s="49"/>
-      <c r="D267" s="49"/>
-      <c r="E267" s="45"/>
+      <c r="B267" s="86"/>
+      <c r="C267" s="86"/>
+      <c r="D267" s="86"/>
+      <c r="E267" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -27498,7 +27628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39AC43B-7986-45B7-A936-0F9EBAD8002F}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -27547,210 +27677,210 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="53" t="s">
         <v>51</v>
       </c>
       <c r="B2">
         <v>439</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="F2" s="67">
+      <c r="F2" s="54">
         <v>44454</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="54">
         <v>44450</v>
       </c>
-      <c r="H2" s="67">
+      <c r="H2" s="54">
         <v>43831</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="53" t="s">
         <v>52</v>
       </c>
       <c r="B3">
         <v>3212</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="54">
         <v>44454</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="54">
         <v>44450</v>
       </c>
-      <c r="H3" s="67">
+      <c r="H3" s="54">
         <v>43831</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="53" t="s">
         <v>53</v>
       </c>
       <c r="B4">
         <v>9240</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="54">
         <v>44454</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="54">
         <v>44450</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="54">
         <v>43831</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="53" t="s">
         <v>54</v>
       </c>
       <c r="B5">
         <v>23501</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="54">
         <v>44454</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="54">
         <v>44450</v>
       </c>
-      <c r="H5" s="67">
+      <c r="H5" s="54">
         <v>43831</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="53" t="s">
         <v>55</v>
       </c>
       <c r="B6">
         <v>110689</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="F6" s="67">
+      <c r="F6" s="54">
         <v>44454</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="54">
         <v>44450</v>
       </c>
-      <c r="H6" s="67">
+      <c r="H6" s="54">
         <v>43831</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="53" t="s">
         <v>56</v>
       </c>
       <c r="B7">
         <v>147568</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="54">
         <v>44454</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="54">
         <v>44450</v>
       </c>
-      <c r="H7" s="67">
+      <c r="H7" s="54">
         <v>43831</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="53" t="s">
         <v>57</v>
       </c>
       <c r="B8">
         <v>176763</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="54">
         <v>44454</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="54">
         <v>44450</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="54">
         <v>43831</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="53" t="s">
         <v>58</v>
       </c>
       <c r="B9">
         <v>187342</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="54">
         <v>44454</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="54">
         <v>44450</v>
       </c>
-      <c r="H9" s="67">
+      <c r="H9" s="54">
         <v>43831</v>
       </c>
     </row>
@@ -27762,12 +27892,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A52988-0099-47CA-A18D-B9FC73B78E50}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27792,11 +27922,11 @@
       <c r="A2" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="61">
+      <c r="B2" s="48">
         <v>3.1708013024674402E-2</v>
       </c>
-      <c r="C2" s="61">
-        <f>B2*10</f>
+      <c r="C2" s="48">
+        <f t="shared" ref="C2:C15" si="0">B2*10</f>
         <v>0.31708013024674403</v>
       </c>
     </row>
@@ -27804,11 +27934,11 @@
       <c r="A3" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="61">
+      <c r="B3" s="48">
         <v>0.50132170046982505</v>
       </c>
-      <c r="C3" s="61">
-        <f>B3*10</f>
+      <c r="C3" s="48">
+        <f t="shared" si="0"/>
         <v>5.0132170046982507</v>
       </c>
     </row>
@@ -27816,11 +27946,11 @@
       <c r="A4" t="s">
         <v>226</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="48">
         <v>1.15601399213962</v>
       </c>
-      <c r="C4" s="61">
-        <f>B4*10</f>
+      <c r="C4" s="48">
+        <f t="shared" si="0"/>
         <v>11.5601399213962</v>
       </c>
     </row>
@@ -27828,11 +27958,11 @@
       <c r="A5" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="48">
         <v>1.27285137008042</v>
       </c>
-      <c r="C5" s="61">
-        <f>B5*10</f>
+      <c r="C5" s="48">
+        <f t="shared" si="0"/>
         <v>12.7285137008042</v>
       </c>
     </row>
@@ -27840,11 +27970,11 @@
       <c r="A6" t="s">
         <v>227</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="48">
         <v>3.2416792799829</v>
       </c>
-      <c r="C6" s="61">
-        <f>B6*10</f>
+      <c r="C6" s="48">
+        <f t="shared" si="0"/>
         <v>32.416792799828997</v>
       </c>
     </row>
@@ -27852,11 +27982,11 @@
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="48">
         <v>10.6</v>
       </c>
-      <c r="C7" s="61">
-        <f>B7*10</f>
+      <c r="C7" s="48">
+        <f t="shared" si="0"/>
         <v>106</v>
       </c>
     </row>
@@ -27864,11 +27994,11 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="48">
         <v>12.835756677948501</v>
       </c>
-      <c r="C8" s="61">
-        <f>B8*10</f>
+      <c r="C8" s="48">
+        <f t="shared" si="0"/>
         <v>128.35756677948501</v>
       </c>
     </row>
@@ -27876,11 +28006,11 @@
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="61">
+      <c r="B9" s="48">
         <v>20.7</v>
       </c>
-      <c r="C9" s="61">
-        <f>B9*10</f>
+      <c r="C9" s="48">
+        <f t="shared" si="0"/>
         <v>207</v>
       </c>
     </row>
@@ -27888,11 +28018,11 @@
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="48">
         <v>21.991618277837699</v>
       </c>
-      <c r="C10" s="61">
-        <f>B10*10</f>
+      <c r="C10" s="48">
+        <f t="shared" si="0"/>
         <v>219.91618277837699</v>
       </c>
     </row>
@@ -27900,11 +28030,11 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="48">
         <v>38.453960806413697</v>
       </c>
-      <c r="C11" s="61">
-        <f>B11*10</f>
+      <c r="C11" s="48">
+        <f t="shared" si="0"/>
         <v>384.53960806413698</v>
       </c>
     </row>
@@ -27912,11 +28042,11 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="48">
         <v>71.950580038431198</v>
       </c>
-      <c r="C12" s="61">
-        <f>B12*10</f>
+      <c r="C12" s="48">
+        <f t="shared" si="0"/>
         <v>719.50580038431201</v>
       </c>
     </row>
@@ -27924,11 +28054,11 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="48">
         <v>75.605502745915203</v>
       </c>
-      <c r="C13" s="61">
-        <f>B13*10</f>
+      <c r="C13" s="48">
+        <f t="shared" si="0"/>
         <v>756.05502745915203</v>
       </c>
     </row>
@@ -27936,11 +28066,11 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="61">
+      <c r="B14" s="48">
         <v>127.643625515697</v>
       </c>
-      <c r="C14" s="61">
-        <f>B14*10</f>
+      <c r="C14" s="48">
+        <f t="shared" si="0"/>
         <v>1276.43625515697</v>
       </c>
     </row>
@@ -27948,11 +28078,11 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="61">
+      <c r="B15" s="48">
         <v>151.08949194917699</v>
       </c>
-      <c r="C15" s="61">
-        <f>B15*10</f>
+      <c r="C15" s="48">
+        <f t="shared" si="0"/>
         <v>1510.89491949177</v>
       </c>
     </row>
